--- a/data/(4,1)/W+++/summary_by_file_odd_even_general.xlsx
+++ b/data/(4,1)/W+++/summary_by_file_odd_even_general.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d28beaa99568fc0f/Documents/2-1/Project/data/(4^J1)/degree^Mdistance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d28beaa99568fc0f/Documents/Project/data/(4^J1)/W^M^M^M/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_258DF0B8D300DE51137A3A11595ED87656CC47F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{738E136D-C81A-4AB0-A754-834A2723866D}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_44E132A7D3A05B1117983311595ED87656CC2A88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B44CF76-7582-4CD0-954C-D846FED4CF85}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-30315" yWindow="3870" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C200"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="B300" sqref="B300:C348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3.72</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.87</v>
+        <v>5.05</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.62</v>
+        <v>5.46</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.08</v>
+        <v>5.4</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.49</v>
+        <v>14.31</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.6</v>
+        <v>13.69</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>18.239999999999998</v>
+        <v>44.82</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -603,10 +603,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>28.76</v>
+        <v>41.12</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>19.510000000000002</v>
+        <v>55.72</v>
       </c>
       <c r="G10">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -643,19 +643,19 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.46</v>
+        <v>0.85</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>25.07</v>
+        <v>45.28</v>
       </c>
       <c r="F11">
-        <v>0.41509433962264147</v>
+        <v>0.84</v>
       </c>
       <c r="G11">
-        <v>0.51063829787234039</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>24.79</v>
+        <v>89.81</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>25.67</v>
+        <v>98.4</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>36.090000000000003</v>
+        <v>118.94</v>
       </c>
       <c r="G14">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.44</v>
+        <v>169.97</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.11</v>
+        <v>0.45</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>47.91</v>
+        <v>189.63</v>
       </c>
       <c r="G16">
-        <v>0.11</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -772,19 +772,19 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>51.49</v>
+        <v>241.54</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="G17">
-        <v>8.1632653061224483E-2</v>
+        <v>8.5106382978723402E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -795,16 +795,16 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>56.56</v>
+        <v>280.8</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -815,19 +815,19 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.18</v>
+        <v>0.47</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>62.77</v>
+        <v>245.03</v>
       </c>
       <c r="F19">
-        <v>0.19565217391304349</v>
+        <v>0.50980392156862742</v>
       </c>
       <c r="G19">
-        <v>0.16666666666666671</v>
+        <v>0.42857142857142849</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>69.5</v>
+        <v>365.95</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -858,19 +858,19 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>69.62</v>
+        <v>385.47</v>
       </c>
       <c r="F21">
-        <v>2.0408163265306121E-2</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.14285714285714279</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -881,16 +881,16 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.12</v>
+        <v>0.48</v>
       </c>
       <c r="D22">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>93.64</v>
+        <v>326.87</v>
       </c>
       <c r="G22">
-        <v>0.12</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -901,16 +901,16 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>82.12</v>
+        <v>491.01</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>8.1632653061224483E-2</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -924,16 +924,16 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.23</v>
+        <v>0.8</v>
       </c>
       <c r="D24">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>102.76</v>
+        <v>258.31</v>
       </c>
       <c r="G24">
-        <v>0.23</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -944,19 +944,19 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.1</v>
+        <v>0.49</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>102.29</v>
+        <v>450.27</v>
       </c>
       <c r="F25">
-        <v>0.1224489795918367</v>
+        <v>0.48979591836734693</v>
       </c>
       <c r="G25">
-        <v>7.8431372549019607E-2</v>
+        <v>0.49019607843137247</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -967,16 +967,16 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E26">
-        <v>108.35</v>
+        <v>560.5</v>
       </c>
       <c r="G26">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -987,19 +987,19 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.27</v>
+        <v>0.94</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>116.28</v>
+        <v>284.8</v>
       </c>
       <c r="F27">
-        <v>0.22950819672131151</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="G27">
-        <v>0.33333333333333331</v>
+        <v>0.93478260869565222</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1010,16 +1010,16 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.09</v>
+        <v>0.51</v>
       </c>
       <c r="D28">
         <v>0.01</v>
       </c>
       <c r="E28">
-        <v>150.41999999999999</v>
+        <v>583.85</v>
       </c>
       <c r="G28">
-        <v>0.09</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1030,19 +1030,19 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.22</v>
+        <v>0.85</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>123.44</v>
+        <v>401.26</v>
       </c>
       <c r="F29">
-        <v>0.1967213114754098</v>
+        <v>0.86792452830188682</v>
       </c>
       <c r="G29">
-        <v>0.25641025641025639</v>
+        <v>0.82978723404255317</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1053,16 +1053,16 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.28999999999999998</v>
+        <v>0.86</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>137.96</v>
+        <v>395.02</v>
       </c>
       <c r="G30">
-        <v>0.28999999999999998</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1073,19 +1073,19 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.2</v>
+        <v>0.81</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E31">
-        <v>148.47999999999999</v>
+        <v>454.03</v>
       </c>
       <c r="F31">
-        <v>0.18</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="G31">
-        <v>0.22</v>
+        <v>0.79591836734693877</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1096,16 +1096,16 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.39</v>
+        <v>0.97</v>
       </c>
       <c r="D32">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E32">
-        <v>159.47999999999999</v>
+        <v>303.48</v>
       </c>
       <c r="G32">
-        <v>0.39</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1116,19 +1116,19 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>0.22</v>
+        <v>0.87</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E33">
-        <v>157.94</v>
+        <v>421.28</v>
       </c>
       <c r="F33">
-        <v>0.23076923076923081</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G33">
-        <v>0.20833333333333329</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1139,16 +1139,16 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="D34">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E34">
-        <v>195.18</v>
+        <v>436.97</v>
       </c>
       <c r="G34">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1159,19 +1159,19 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.44</v>
+        <v>0.95</v>
       </c>
       <c r="D35">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="E35">
-        <v>197.36</v>
+        <v>340.36</v>
       </c>
       <c r="F35">
-        <v>0.45238095238095238</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="G35">
-        <v>0.43103448275862072</v>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1182,16 +1182,16 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>0.28999999999999998</v>
+        <v>0.94</v>
       </c>
       <c r="D36">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E36">
-        <v>194.87</v>
+        <v>409.95</v>
       </c>
       <c r="G36">
-        <v>0.28999999999999998</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1202,19 +1202,19 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>0.25</v>
+        <v>0.98</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E37">
-        <v>186.19</v>
+        <v>370.34</v>
       </c>
       <c r="F37">
-        <v>0.2391304347826087</v>
+        <v>0.98148148148148151</v>
       </c>
       <c r="G37">
-        <v>0.25925925925925919</v>
+        <v>0.97826086956521741</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1225,16 +1225,16 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0.36</v>
+        <v>0.97</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E38">
-        <v>219.09</v>
+        <v>375.93</v>
       </c>
       <c r="G38">
-        <v>0.36</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1245,19 +1245,19 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>0.35</v>
+        <v>0.93</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E39">
-        <v>204.65</v>
+        <v>469.65</v>
       </c>
       <c r="F39">
-        <v>0.36</v>
+        <v>0.93617021276595747</v>
       </c>
       <c r="G39">
-        <v>0.34</v>
+        <v>0.92452830188679247</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1268,16 +1268,16 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>0.45</v>
+        <v>0.97</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E40">
-        <v>221.62</v>
+        <v>371.56</v>
       </c>
       <c r="G40">
-        <v>0.45</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1288,19 +1288,19 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>0.39</v>
+        <v>0.96</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E41">
-        <v>225.02</v>
+        <v>431.16</v>
       </c>
       <c r="F41">
-        <v>0.37735849056603782</v>
+        <v>0.96610169491525422</v>
       </c>
       <c r="G41">
-        <v>0.40425531914893609</v>
+        <v>0.95121951219512191</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1311,16 +1311,16 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>0.41</v>
+        <v>0.98</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E42">
-        <v>235.5</v>
+        <v>453.29</v>
       </c>
       <c r="G42">
-        <v>0.41</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1331,19 +1331,19 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E43">
-        <v>241.27</v>
+        <v>455.73</v>
       </c>
       <c r="F43">
-        <v>0.27906976744186052</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0.36842105263157893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1354,16 +1354,16 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E44">
-        <v>257.02999999999997</v>
+        <v>446.94</v>
       </c>
       <c r="G44">
-        <v>0.39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1374,19 +1374,19 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E45">
-        <v>321.95999999999998</v>
+        <v>408.22</v>
       </c>
       <c r="F45">
-        <v>0.48148148148148151</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>0.34782608695652167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1397,16 +1397,16 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>0.53</v>
+        <v>0.99</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E46">
-        <v>284.13</v>
+        <v>490.52</v>
       </c>
       <c r="G46">
-        <v>0.53</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1417,19 +1417,19 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>0.48</v>
+        <v>0.98</v>
       </c>
       <c r="D47">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="E47">
-        <v>303.45</v>
+        <v>541.24</v>
       </c>
       <c r="F47">
-        <v>0.45238095238095238</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="G47">
-        <v>0.5</v>
+        <v>0.97727272727272729</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1440,16 +1440,16 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>0.42</v>
+        <v>0.97</v>
       </c>
       <c r="D48">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="E48">
-        <v>320.37</v>
+        <v>503.3</v>
       </c>
       <c r="G48">
-        <v>0.42</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1460,19 +1460,19 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>0.42</v>
+        <v>0.99</v>
       </c>
       <c r="D49">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="E49">
-        <v>377.12</v>
+        <v>586.59</v>
       </c>
       <c r="F49">
-        <v>0.45098039215686281</v>
+        <v>0.97727272727272729</v>
       </c>
       <c r="G49">
-        <v>0.38775510204081631</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -1483,16 +1483,16 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>0.41</v>
+        <v>0.98</v>
       </c>
       <c r="D50">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="E50">
-        <v>341.38</v>
+        <v>567.29</v>
       </c>
       <c r="G50">
-        <v>0.41</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1503,19 +1503,19 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>0.43</v>
+        <v>0.99</v>
       </c>
       <c r="D51">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="E51">
-        <v>370.71</v>
+        <v>575.70000000000005</v>
       </c>
       <c r="F51">
-        <v>0.44897959183673469</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>0.41176470588235292</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -1526,16 +1526,16 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>0.48</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>0.01</v>
+        <v>0.27</v>
       </c>
       <c r="E52">
-        <v>347.66</v>
+        <v>607.45000000000005</v>
       </c>
       <c r="G52">
-        <v>0.48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -1546,19 +1546,19 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>0.41</v>
+        <v>0.97</v>
       </c>
       <c r="D53">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="E53">
-        <v>373.44</v>
+        <v>593.82000000000005</v>
       </c>
       <c r="F53">
-        <v>0.45833333333333331</v>
+        <v>0.97619047619047616</v>
       </c>
       <c r="G53">
-        <v>0.36538461538461542</v>
+        <v>0.96551724137931039</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -1569,16 +1569,16 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>0.4</v>
+        <v>0.99</v>
       </c>
       <c r="D54">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="E54">
-        <v>389.8</v>
+        <v>643.75</v>
       </c>
       <c r="G54">
-        <v>0.4</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1589,19 +1589,19 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>0.48</v>
+        <v>0.99</v>
       </c>
       <c r="D55">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="E55">
-        <v>388.71</v>
+        <v>639.41999999999996</v>
       </c>
       <c r="F55">
-        <v>0.44680851063829791</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>0.50943396226415094</v>
+        <v>0.97777777777777775</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -1612,16 +1612,16 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>0.03</v>
+        <v>0.23</v>
       </c>
       <c r="E56">
-        <v>410.59</v>
+        <v>686.58</v>
       </c>
       <c r="G56">
-        <v>0.44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -1632,19 +1632,19 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>0.48</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="E57">
-        <v>465.83</v>
+        <v>622.88</v>
       </c>
       <c r="F57">
-        <v>0.48148148148148151</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>0.47826086956521741</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -1655,16 +1655,16 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="E58">
-        <v>424.85</v>
+        <v>756.33</v>
       </c>
       <c r="G58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -1675,19 +1675,19 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="E59">
-        <v>432.01</v>
+        <v>741.94</v>
       </c>
       <c r="F59">
-        <v>0.46666666666666667</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>0.50909090909090904</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -1698,16 +1698,16 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>0.46</v>
+        <v>0.98</v>
       </c>
       <c r="D60">
-        <v>0.04</v>
+        <v>0.33</v>
       </c>
       <c r="E60">
-        <v>454.26</v>
+        <v>767.61</v>
       </c>
       <c r="G60">
-        <v>0.46</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -1718,19 +1718,19 @@
         <v>60</v>
       </c>
       <c r="C61">
-        <v>0.42</v>
+        <v>0.99</v>
       </c>
       <c r="D61">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="E61">
-        <v>472.66</v>
+        <v>932.9</v>
       </c>
       <c r="F61">
-        <v>0.47727272727272729</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>0.375</v>
+        <v>0.97872340425531912</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -1741,16 +1741,16 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <v>0.51</v>
+        <v>0.99</v>
       </c>
       <c r="D62">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
       <c r="E62">
-        <v>471.46</v>
+        <v>773.97</v>
       </c>
       <c r="G62">
-        <v>0.51</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -1761,19 +1761,19 @@
         <v>62</v>
       </c>
       <c r="C63">
-        <v>0.51</v>
+        <v>0.97</v>
       </c>
       <c r="D63">
-        <v>0.01</v>
+        <v>0.45</v>
       </c>
       <c r="E63">
-        <v>466.51</v>
+        <v>892</v>
       </c>
       <c r="F63">
-        <v>0.49019607843137247</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>0.53061224489795922</v>
+        <v>0.94827586206896552</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -1784,16 +1784,16 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <v>0.53</v>
+        <v>0.99</v>
       </c>
       <c r="D64">
-        <v>0.01</v>
+        <v>0.47</v>
       </c>
       <c r="E64">
-        <v>479.16</v>
+        <v>944.43</v>
       </c>
       <c r="G64">
-        <v>0.53</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -1804,19 +1804,19 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>0.11</v>
+        <v>0.31</v>
       </c>
       <c r="E65">
-        <v>585.16999999999996</v>
+        <v>779.84</v>
       </c>
       <c r="F65">
-        <v>0.40384615384615391</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>0.45833333333333331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -1827,16 +1827,16 @@
         <v>65</v>
       </c>
       <c r="C66">
-        <v>0.36</v>
+        <v>0.99</v>
       </c>
       <c r="D66">
-        <v>0.11</v>
+        <v>0.43</v>
       </c>
       <c r="E66">
-        <v>576.15</v>
+        <v>952.45</v>
       </c>
       <c r="G66">
-        <v>0.36</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -1847,19 +1847,19 @@
         <v>66</v>
       </c>
       <c r="C67">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>0.03</v>
+        <v>0.49</v>
       </c>
       <c r="E67">
-        <v>519.75</v>
+        <v>979.19</v>
       </c>
       <c r="F67">
-        <v>0.4107142857142857</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>0.52272727272727271</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -1870,16 +1870,16 @@
         <v>67</v>
       </c>
       <c r="C68">
-        <v>0.45</v>
+        <v>0.99</v>
       </c>
       <c r="D68">
-        <v>0.06</v>
+        <v>0.47</v>
       </c>
       <c r="E68">
-        <v>578.32000000000005</v>
+        <v>992.95</v>
       </c>
       <c r="G68">
-        <v>0.45</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -1890,19 +1890,19 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>0.01</v>
+        <v>0.42</v>
       </c>
       <c r="E69">
-        <v>545.66</v>
+        <v>970.66</v>
       </c>
       <c r="F69">
-        <v>0.45833333333333331</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>0.40384615384615391</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -1913,16 +1913,16 @@
         <v>69</v>
       </c>
       <c r="C70">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>0.01</v>
+        <v>0.34</v>
       </c>
       <c r="E70">
-        <v>552.98</v>
+        <v>894.85</v>
       </c>
       <c r="G70">
-        <v>0.44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -1933,19 +1933,19 @@
         <v>70</v>
       </c>
       <c r="C71">
-        <v>0.36</v>
+        <v>0.97</v>
       </c>
       <c r="D71">
-        <v>0.05</v>
+        <v>0.66</v>
       </c>
       <c r="E71">
-        <v>615.4</v>
+        <v>1201.76</v>
       </c>
       <c r="F71">
-        <v>0.41304347826086962</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G71">
-        <v>0.31481481481481483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -1956,16 +1956,16 @@
         <v>71</v>
       </c>
       <c r="C72">
-        <v>0.39</v>
+        <v>0.98</v>
       </c>
       <c r="D72">
-        <v>0.01</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E72">
-        <v>585.24</v>
+        <v>1161.3699999999999</v>
       </c>
       <c r="G72">
-        <v>0.39</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -1976,19 +1976,19 @@
         <v>72</v>
       </c>
       <c r="C73">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="E73">
-        <v>610.35</v>
+        <v>1113.3499999999999</v>
       </c>
       <c r="F73">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>0.38181818181818178</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -1999,16 +1999,16 @@
         <v>73</v>
       </c>
       <c r="C74">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>0.04</v>
+        <v>0.66</v>
       </c>
       <c r="E74">
-        <v>621.94000000000005</v>
+        <v>1274.6400000000001</v>
       </c>
       <c r="G74">
-        <v>0.43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2019,19 +2019,19 @@
         <v>74</v>
       </c>
       <c r="C75">
-        <v>0.53</v>
+        <v>0.98</v>
       </c>
       <c r="D75">
-        <v>0.11</v>
+        <v>0.71</v>
       </c>
       <c r="E75">
-        <v>712.54</v>
+        <v>1304.1500000000001</v>
       </c>
       <c r="F75">
-        <v>0.45238095238095238</v>
+        <v>0.97727272727272729</v>
       </c>
       <c r="G75">
-        <v>0.58620689655172409</v>
+        <v>0.9821428571428571</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2042,16 +2042,16 @@
         <v>75</v>
       </c>
       <c r="C76">
-        <v>0.42</v>
+        <v>0.99</v>
       </c>
       <c r="D76">
-        <v>0.08</v>
+        <v>0.86</v>
       </c>
       <c r="E76">
-        <v>666.03</v>
+        <v>1266</v>
       </c>
       <c r="G76">
-        <v>0.42</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -2062,19 +2062,19 @@
         <v>76</v>
       </c>
       <c r="C77">
-        <v>0.46</v>
+        <v>0.97</v>
       </c>
       <c r="D77">
-        <v>0.04</v>
+        <v>0.94</v>
       </c>
       <c r="E77">
-        <v>656.73</v>
+        <v>1305.49</v>
       </c>
       <c r="F77">
-        <v>0.42592592592592587</v>
+        <v>0.97560975609756095</v>
       </c>
       <c r="G77">
-        <v>0.5</v>
+        <v>0.96610169491525422</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -2085,16 +2085,16 @@
         <v>77</v>
       </c>
       <c r="C78">
-        <v>0.48</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>0.1</v>
+        <v>0.76</v>
       </c>
       <c r="E78">
-        <v>708.54</v>
+        <v>1197.75</v>
       </c>
       <c r="G78">
-        <v>0.48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -2105,19 +2105,19 @@
         <v>78</v>
       </c>
       <c r="C79">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>0.03</v>
+        <v>0.75</v>
       </c>
       <c r="E79">
-        <v>662.12</v>
+        <v>1217.26</v>
       </c>
       <c r="F79">
-        <v>0.41176470588235292</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>0.48979591836734693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -2128,16 +2128,16 @@
         <v>79</v>
       </c>
       <c r="C80">
-        <v>0.46</v>
+        <v>0.99</v>
       </c>
       <c r="D80">
-        <v>0.13</v>
+        <v>0.96</v>
       </c>
       <c r="E80">
-        <v>744.42</v>
+        <v>1443.54</v>
       </c>
       <c r="G80">
-        <v>0.46</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -2148,19 +2148,19 @@
         <v>80</v>
       </c>
       <c r="C81">
-        <v>0.4</v>
+        <v>0.99</v>
       </c>
       <c r="D81">
-        <v>0.06</v>
+        <v>0.73</v>
       </c>
       <c r="E81">
-        <v>723.26</v>
+        <v>1239.71</v>
       </c>
       <c r="F81">
-        <v>0.34693877551020408</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>0.45098039215686281</v>
+        <v>0.98245614035087714</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -2171,16 +2171,16 @@
         <v>81</v>
       </c>
       <c r="C82">
-        <v>0.47</v>
+        <v>0.99</v>
       </c>
       <c r="D82">
-        <v>0.05</v>
+        <v>0.88</v>
       </c>
       <c r="E82">
-        <v>721.21</v>
+        <v>1331.15</v>
       </c>
       <c r="G82">
-        <v>0.47</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -2191,19 +2191,19 @@
         <v>82</v>
       </c>
       <c r="C83">
-        <v>0.38</v>
+        <v>0.98</v>
       </c>
       <c r="D83">
-        <v>0.11</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E83">
-        <v>787.18</v>
+        <v>1687.7</v>
       </c>
       <c r="F83">
-        <v>0.39655172413793099</v>
+        <v>0.98333333333333328</v>
       </c>
       <c r="G83">
-        <v>0.35714285714285721</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -2214,16 +2214,16 @@
         <v>83</v>
       </c>
       <c r="C84">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>0.08</v>
+        <v>0.98</v>
       </c>
       <c r="E84">
-        <v>742.12</v>
+        <v>1483.44</v>
       </c>
       <c r="G84">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -2234,19 +2234,19 @@
         <v>84</v>
       </c>
       <c r="C85">
-        <v>0.43</v>
+        <v>0.99</v>
       </c>
       <c r="D85">
-        <v>0.17</v>
+        <v>0.88</v>
       </c>
       <c r="E85">
-        <v>842.82</v>
+        <v>1404.99</v>
       </c>
       <c r="F85">
-        <v>0.42105263157894729</v>
+        <v>0.98</v>
       </c>
       <c r="G85">
-        <v>0.44186046511627908</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -2257,16 +2257,16 @@
         <v>85</v>
       </c>
       <c r="C86">
-        <v>0.4</v>
+        <v>0.98</v>
       </c>
       <c r="D86">
-        <v>0.08</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E86">
-        <v>819.26</v>
+        <v>1705.49</v>
       </c>
       <c r="G86">
-        <v>0.4</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -2277,19 +2277,19 @@
         <v>86</v>
       </c>
       <c r="C87">
-        <v>0.44</v>
+        <v>0.99</v>
       </c>
       <c r="D87">
-        <v>0.09</v>
+        <v>0.79</v>
       </c>
       <c r="E87">
-        <v>798.18</v>
+        <v>1348.87</v>
       </c>
       <c r="F87">
-        <v>0.46511627906976738</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>0.42105263157894729</v>
+        <v>0.97959183673469385</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -2300,16 +2300,16 @@
         <v>87</v>
       </c>
       <c r="C88">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>0.16</v>
+        <v>1.08</v>
       </c>
       <c r="E88">
-        <v>874.95</v>
+        <v>1592.01</v>
       </c>
       <c r="G88">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -2320,19 +2320,19 @@
         <v>88</v>
       </c>
       <c r="C89">
-        <v>0.44</v>
+        <v>0.98</v>
       </c>
       <c r="D89">
-        <v>0.11</v>
+        <v>1.41</v>
       </c>
       <c r="E89">
-        <v>845.07</v>
+        <v>1877.48</v>
       </c>
       <c r="F89">
-        <v>0.47457627118644069</v>
+        <v>0.97872340425531912</v>
       </c>
       <c r="G89">
-        <v>0.3902439024390244</v>
+        <v>0.98113207547169812</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -2343,16 +2343,16 @@
         <v>89</v>
       </c>
       <c r="C90">
-        <v>0.39</v>
+        <v>0.99</v>
       </c>
       <c r="D90">
-        <v>0.16</v>
+        <v>1.35</v>
       </c>
       <c r="E90">
-        <v>879.15</v>
+        <v>1891.37</v>
       </c>
       <c r="G90">
-        <v>0.39</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -2363,19 +2363,19 @@
         <v>90</v>
       </c>
       <c r="C91">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="D91">
-        <v>0.2</v>
+        <v>1.08</v>
       </c>
       <c r="E91">
-        <v>924.77</v>
+        <v>1629.92</v>
       </c>
       <c r="F91">
-        <v>0.46808510638297868</v>
+        <v>0.98</v>
       </c>
       <c r="G91">
-        <v>0.52830188679245282</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -2386,16 +2386,16 @@
         <v>91</v>
       </c>
       <c r="C92">
-        <v>0.38</v>
+        <v>0.99</v>
       </c>
       <c r="D92">
-        <v>0.23</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="E92">
-        <v>927.18</v>
+        <v>1669.63</v>
       </c>
       <c r="G92">
-        <v>0.38</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -2406,19 +2406,19 @@
         <v>92</v>
       </c>
       <c r="C93">
-        <v>0.46</v>
+        <v>0.99</v>
       </c>
       <c r="D93">
-        <v>0.19</v>
+        <v>1.25</v>
       </c>
       <c r="E93">
-        <v>947.67</v>
+        <v>1812.71</v>
       </c>
       <c r="F93">
-        <v>0.4358974358974359</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>0.47540983606557369</v>
+        <v>0.97872340425531912</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -2429,16 +2429,16 @@
         <v>93</v>
       </c>
       <c r="C94">
-        <v>0.37</v>
+        <v>0.98</v>
       </c>
       <c r="D94">
-        <v>0.2</v>
+        <v>1.37</v>
       </c>
       <c r="E94">
-        <v>947.78</v>
+        <v>1909.47</v>
       </c>
       <c r="G94">
-        <v>0.37</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -2449,19 +2449,19 @@
         <v>94</v>
       </c>
       <c r="C95">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>0.28000000000000003</v>
+        <v>0.97</v>
       </c>
       <c r="E95">
-        <v>995.76</v>
+        <v>1536.72</v>
       </c>
       <c r="F95">
-        <v>0.4098360655737705</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>0.64102564102564108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -2472,16 +2472,16 @@
         <v>95</v>
       </c>
       <c r="C96">
-        <v>0.42</v>
+        <v>0.99</v>
       </c>
       <c r="D96">
-        <v>0.18</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E96">
-        <v>980.08</v>
+        <v>1713.29</v>
       </c>
       <c r="G96">
-        <v>0.42</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -2492,19 +2492,19 @@
         <v>96</v>
       </c>
       <c r="C97">
-        <v>0.59</v>
+        <v>0.99</v>
       </c>
       <c r="D97">
-        <v>0.2</v>
+        <v>1.45</v>
       </c>
       <c r="E97">
-        <v>962.18</v>
+        <v>2044.76</v>
       </c>
       <c r="F97">
-        <v>0.56140350877192979</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="G97">
-        <v>0.62790697674418605</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -2515,16 +2515,16 @@
         <v>97</v>
       </c>
       <c r="C98">
-        <v>0.38</v>
+        <v>0.98</v>
       </c>
       <c r="D98">
-        <v>0.24</v>
+        <v>1.41</v>
       </c>
       <c r="E98">
-        <v>999.03</v>
+        <v>2025.26</v>
       </c>
       <c r="G98">
-        <v>0.38</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -2535,19 +2535,19 @@
         <v>98</v>
       </c>
       <c r="C99">
-        <v>0.48</v>
+        <v>0.98</v>
       </c>
       <c r="D99">
-        <v>0.34</v>
+        <v>1.29</v>
       </c>
       <c r="E99">
-        <v>1092.1300000000001</v>
+        <v>1915.45</v>
       </c>
       <c r="F99">
-        <v>0.4642857142857143</v>
+        <v>0.95744680851063835</v>
       </c>
       <c r="G99">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -2558,16 +2558,16 @@
         <v>99</v>
       </c>
       <c r="C100">
-        <v>0.42</v>
+        <v>0.99</v>
       </c>
       <c r="D100">
-        <v>0.23</v>
+        <v>1.29</v>
       </c>
       <c r="E100">
-        <v>1025.51</v>
+        <v>1943.12</v>
       </c>
       <c r="G100">
-        <v>0.42</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -2578,19 +2578,19 @@
         <v>100</v>
       </c>
       <c r="C101">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>0.38</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E101">
-        <v>1095.3399999999999</v>
+        <v>1768.41</v>
       </c>
       <c r="F101">
-        <v>0.45652173913043481</v>
+        <v>1</v>
       </c>
       <c r="G101">
-        <v>0.55555555555555558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -2601,16 +2601,16 @@
         <v>101</v>
       </c>
       <c r="C102">
-        <v>0.48</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>0.39</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E102">
-        <v>1088.24</v>
+        <v>1877.73</v>
       </c>
       <c r="G102">
-        <v>0.48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -2621,19 +2621,19 @@
         <v>102</v>
       </c>
       <c r="C103">
-        <v>0.37</v>
+        <v>0.97</v>
       </c>
       <c r="D103">
-        <v>0.47</v>
+        <v>1.54</v>
       </c>
       <c r="E103">
-        <v>1199.4000000000001</v>
+        <v>2238.9</v>
       </c>
       <c r="F103">
-        <v>0.375</v>
+        <v>0.96226415094339623</v>
       </c>
       <c r="G103">
-        <v>0.36363636363636359</v>
+        <v>0.97872340425531912</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -2644,16 +2644,16 @@
         <v>103</v>
       </c>
       <c r="C104">
-        <v>0.52</v>
+        <v>0.99</v>
       </c>
       <c r="D104">
-        <v>0.6</v>
+        <v>1.35</v>
       </c>
       <c r="E104">
-        <v>1091.28</v>
+        <v>2049.6999999999998</v>
       </c>
       <c r="G104">
-        <v>0.52</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -2664,19 +2664,19 @@
         <v>104</v>
       </c>
       <c r="C105">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>0.73</v>
+        <v>1.52</v>
       </c>
       <c r="E105">
-        <v>1192.21</v>
+        <v>2237.92</v>
       </c>
       <c r="F105">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="G105">
-        <v>0.48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -2687,16 +2687,16 @@
         <v>105</v>
       </c>
       <c r="C106">
-        <v>0.33</v>
+        <v>0.99</v>
       </c>
       <c r="D106">
-        <v>0.98</v>
+        <v>1.42</v>
       </c>
       <c r="E106">
-        <v>1187.22</v>
+        <v>2198.11</v>
       </c>
       <c r="G106">
-        <v>0.33</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -2707,19 +2707,19 @@
         <v>106</v>
       </c>
       <c r="C107">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>1.1299999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="E107">
-        <v>1292.48</v>
+        <v>2125.9299999999998</v>
       </c>
       <c r="F107">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -2730,16 +2730,16 @@
         <v>107</v>
       </c>
       <c r="C108">
-        <v>0.44</v>
+        <v>0.99</v>
       </c>
       <c r="D108">
-        <v>1.03</v>
+        <v>1.47</v>
       </c>
       <c r="E108">
-        <v>1171.5</v>
+        <v>2230.35</v>
       </c>
       <c r="G108">
-        <v>0.44</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -2750,19 +2750,19 @@
         <v>108</v>
       </c>
       <c r="C109">
-        <v>0.46</v>
+        <v>0.99</v>
       </c>
       <c r="D109">
-        <v>1.1000000000000001</v>
+        <v>1.29</v>
       </c>
       <c r="E109">
-        <v>1298.8499999999999</v>
+        <v>2087.61</v>
       </c>
       <c r="F109">
-        <v>0.40384615384615391</v>
+        <v>0.97619047619047616</v>
       </c>
       <c r="G109">
-        <v>0.52083333333333337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -2773,16 +2773,16 @@
         <v>109</v>
       </c>
       <c r="C110">
-        <v>0.46</v>
+        <v>0.98</v>
       </c>
       <c r="D110">
-        <v>1.03</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="E110">
-        <v>1244.27</v>
+        <v>2937.19</v>
       </c>
       <c r="G110">
-        <v>0.46</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -2793,19 +2793,19 @@
         <v>110</v>
       </c>
       <c r="C111">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>1.0900000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="E111">
-        <v>1300.5</v>
+        <v>2351.83</v>
       </c>
       <c r="F111">
-        <v>0.51851851851851849</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>0.28260869565217389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -2816,16 +2816,16 @@
         <v>111</v>
       </c>
       <c r="C112">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>1.1000000000000001</v>
+        <v>1.97</v>
       </c>
       <c r="E112">
-        <v>1314.08</v>
+        <v>2238.5500000000002</v>
       </c>
       <c r="G112">
-        <v>0.46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -2836,19 +2836,19 @@
         <v>112</v>
       </c>
       <c r="C113">
-        <v>0.44</v>
+        <v>0.98</v>
       </c>
       <c r="D113">
-        <v>1.08</v>
+        <v>1.94</v>
       </c>
       <c r="E113">
-        <v>1311.55</v>
+        <v>2196.02</v>
       </c>
       <c r="F113">
-        <v>0.39215686274509798</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="G113">
-        <v>0.48979591836734693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -2859,16 +2859,16 @@
         <v>113</v>
       </c>
       <c r="C114">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>1.55</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="E114">
-        <v>1802.9</v>
+        <v>2149.62</v>
       </c>
       <c r="G114">
-        <v>0.41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -2879,19 +2879,19 @@
         <v>114</v>
       </c>
       <c r="C115">
-        <v>0.38</v>
+        <v>0.99</v>
       </c>
       <c r="D115">
-        <v>1.1200000000000001</v>
+        <v>2.39</v>
       </c>
       <c r="E115">
-        <v>1410.45</v>
+        <v>2617.54</v>
       </c>
       <c r="F115">
-        <v>0.40816326530612251</v>
+        <v>0.97959183673469385</v>
       </c>
       <c r="G115">
-        <v>0.35294117647058831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -2902,16 +2902,16 @@
         <v>115</v>
       </c>
       <c r="C116">
-        <v>0.47</v>
+        <v>0.99</v>
       </c>
       <c r="D116">
-        <v>1.06</v>
+        <v>2.31</v>
       </c>
       <c r="E116">
-        <v>1370.26</v>
+        <v>2570.83</v>
       </c>
       <c r="G116">
-        <v>0.47</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -2922,19 +2922,19 @@
         <v>116</v>
       </c>
       <c r="C117">
-        <v>0.39</v>
+        <v>0.99</v>
       </c>
       <c r="D117">
-        <v>1.0900000000000001</v>
+        <v>2.48</v>
       </c>
       <c r="E117">
-        <v>1394.03</v>
+        <v>2746.74</v>
       </c>
       <c r="F117">
-        <v>0.43103448275862072</v>
+        <v>0.98039215686274506</v>
       </c>
       <c r="G117">
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -2945,16 +2945,16 @@
         <v>117</v>
       </c>
       <c r="C118">
-        <v>0.41</v>
+        <v>0.98</v>
       </c>
       <c r="D118">
-        <v>1.0900000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="E118">
-        <v>1387.02</v>
+        <v>2673.34</v>
       </c>
       <c r="G118">
-        <v>0.41</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -2965,19 +2965,19 @@
         <v>118</v>
       </c>
       <c r="C119">
-        <v>0.37</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>1.1200000000000001</v>
+        <v>2.71</v>
       </c>
       <c r="E119">
-        <v>1467.21</v>
+        <v>3088.95</v>
       </c>
       <c r="F119">
-        <v>0.27450980392156871</v>
+        <v>1</v>
       </c>
       <c r="G119">
-        <v>0.46938775510204078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -2988,16 +2988,16 @@
         <v>119</v>
       </c>
       <c r="C120">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="D120">
-        <v>1.0900000000000001</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="E120">
-        <v>1438.94</v>
+        <v>2804.64</v>
       </c>
       <c r="G120">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -3008,19 +3008,19 @@
         <v>120</v>
       </c>
       <c r="C121">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
       <c r="D121">
-        <v>1.1000000000000001</v>
+        <v>2.54</v>
       </c>
       <c r="E121">
-        <v>1458.65</v>
+        <v>2896.9</v>
       </c>
       <c r="F121">
-        <v>0.46938775510204078</v>
+        <v>0.97727272727272729</v>
       </c>
       <c r="G121">
-        <v>0.50980392156862742</v>
+        <v>0.9821428571428571</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -3031,16 +3031,16 @@
         <v>121</v>
       </c>
       <c r="C122">
-        <v>0.37</v>
+        <v>0.99</v>
       </c>
       <c r="D122">
-        <v>1.1299999999999999</v>
+        <v>2.42</v>
       </c>
       <c r="E122">
-        <v>1511.82</v>
+        <v>2761.23</v>
       </c>
       <c r="G122">
-        <v>0.37</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -3051,19 +3051,19 @@
         <v>122</v>
       </c>
       <c r="C123">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>1.18</v>
+        <v>1.96</v>
       </c>
       <c r="E123">
-        <v>1593.02</v>
+        <v>2313.39</v>
       </c>
       <c r="F123">
-        <v>0.53191489361702127</v>
+        <v>1</v>
       </c>
       <c r="G123">
-        <v>0.39622641509433959</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -3074,16 +3074,16 @@
         <v>123</v>
       </c>
       <c r="C124">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>1.0900000000000001</v>
+        <v>2.09</v>
       </c>
       <c r="E124">
-        <v>1498.96</v>
+        <v>2499.83</v>
       </c>
       <c r="G124">
-        <v>0.31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -3094,19 +3094,19 @@
         <v>124</v>
       </c>
       <c r="C125">
-        <v>0.41</v>
+        <v>0.98</v>
       </c>
       <c r="D125">
-        <v>1.17</v>
+        <v>2.5</v>
       </c>
       <c r="E125">
-        <v>1598.42</v>
+        <v>2905.04</v>
       </c>
       <c r="F125">
-        <v>0.41509433962264147</v>
+        <v>0.97826086956521741</v>
       </c>
       <c r="G125">
-        <v>0.40425531914893609</v>
+        <v>0.98148148148148151</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -3117,16 +3117,16 @@
         <v>125</v>
       </c>
       <c r="C126">
-        <v>0.42</v>
+        <v>0.99</v>
       </c>
       <c r="D126">
-        <v>1.1399999999999999</v>
+        <v>2.54</v>
       </c>
       <c r="E126">
-        <v>1574.13</v>
+        <v>2963.02</v>
       </c>
       <c r="G126">
-        <v>0.42</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -3137,19 +3137,19 @@
         <v>126</v>
       </c>
       <c r="C127">
-        <v>0.4</v>
+        <v>0.99</v>
       </c>
       <c r="D127">
-        <v>1.19</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="E127">
-        <v>1651.41</v>
+        <v>2915</v>
       </c>
       <c r="F127">
-        <v>0.36842105263157893</v>
+        <v>1</v>
       </c>
       <c r="G127">
-        <v>0.44186046511627908</v>
+        <v>0.98181818181818181</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -3160,16 +3160,16 @@
         <v>127</v>
       </c>
       <c r="C128">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>1.1299999999999999</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="E128">
-        <v>1603.71</v>
+        <v>2951.58</v>
       </c>
       <c r="G128">
-        <v>0.42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -3180,19 +3180,19 @@
         <v>128</v>
       </c>
       <c r="C129">
-        <v>0.49</v>
+        <v>0.97</v>
       </c>
       <c r="D129">
-        <v>1.0900000000000001</v>
+        <v>2.84</v>
       </c>
       <c r="E129">
-        <v>1583.66</v>
+        <v>3311.58</v>
       </c>
       <c r="F129">
-        <v>0.44444444444444442</v>
+        <v>0.97872340425531912</v>
       </c>
       <c r="G129">
-        <v>0.54347826086956519</v>
+        <v>0.96226415094339623</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -3203,16 +3203,16 @@
         <v>129</v>
       </c>
       <c r="C130">
-        <v>0.43</v>
+        <v>0.99</v>
       </c>
       <c r="D130">
-        <v>1.21</v>
+        <v>3.01</v>
       </c>
       <c r="E130">
-        <v>1698.59</v>
+        <v>3450.11</v>
       </c>
       <c r="G130">
-        <v>0.43</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -3223,19 +3223,19 @@
         <v>130</v>
       </c>
       <c r="C131">
-        <v>0.47</v>
+        <v>0.98</v>
       </c>
       <c r="D131">
-        <v>1.23</v>
+        <v>2.83</v>
       </c>
       <c r="E131">
-        <v>1723.6</v>
+        <v>3305.55</v>
       </c>
       <c r="F131">
-        <v>0.52500000000000002</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="G131">
-        <v>0.43333333333333329</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -3246,16 +3246,16 @@
         <v>131</v>
       </c>
       <c r="C132">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="D132">
-        <v>1.25</v>
+        <v>2.96</v>
       </c>
       <c r="E132">
-        <v>1786.73</v>
+        <v>3386.19</v>
       </c>
       <c r="G132">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -3266,19 +3266,19 @@
         <v>132</v>
       </c>
       <c r="C133">
-        <v>0.37</v>
+        <v>0.99</v>
       </c>
       <c r="D133">
-        <v>1.26</v>
+        <v>3.21</v>
       </c>
       <c r="E133">
-        <v>1794.43</v>
+        <v>3647.5</v>
       </c>
       <c r="F133">
-        <v>0.35416666666666669</v>
+        <v>1</v>
       </c>
       <c r="G133">
-        <v>0.38461538461538458</v>
+        <v>0.98148148148148151</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -3289,16 +3289,16 @@
         <v>133</v>
       </c>
       <c r="C134">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="D134">
-        <v>1.17</v>
+        <v>2.65</v>
       </c>
       <c r="E134">
-        <v>1738.54</v>
+        <v>3166.55</v>
       </c>
       <c r="G134">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -3309,19 +3309,19 @@
         <v>134</v>
       </c>
       <c r="C135">
-        <v>0.48</v>
+        <v>0.98</v>
       </c>
       <c r="D135">
-        <v>1.24</v>
+        <v>3.15</v>
       </c>
       <c r="E135">
-        <v>1824.94</v>
+        <v>3631.13</v>
       </c>
       <c r="F135">
-        <v>0.48</v>
+        <v>1</v>
       </c>
       <c r="G135">
-        <v>0.48</v>
+        <v>0.95744680851063835</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -3332,16 +3332,16 @@
         <v>135</v>
       </c>
       <c r="C136">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>1.27</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="E136">
-        <v>1820.43</v>
+        <v>3045.27</v>
       </c>
       <c r="G136">
-        <v>0.47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -3352,19 +3352,19 @@
         <v>136</v>
       </c>
       <c r="C137">
-        <v>0.51</v>
+        <v>0.99</v>
       </c>
       <c r="D137">
-        <v>1.1499999999999999</v>
+        <v>2.84</v>
       </c>
       <c r="E137">
-        <v>1762.61</v>
+        <v>3405.34</v>
       </c>
       <c r="F137">
-        <v>0.54166666666666663</v>
+        <v>0.97674418604651159</v>
       </c>
       <c r="G137">
-        <v>0.48076923076923078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -3375,16 +3375,16 @@
         <v>137</v>
       </c>
       <c r="C138">
-        <v>0.4</v>
+        <v>0.99</v>
       </c>
       <c r="D138">
-        <v>1.22</v>
+        <v>3.38</v>
       </c>
       <c r="E138">
-        <v>1829.51</v>
+        <v>3899.62</v>
       </c>
       <c r="G138">
-        <v>0.4</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -3395,19 +3395,19 @@
         <v>138</v>
       </c>
       <c r="C139">
-        <v>0.4</v>
+        <v>0.99</v>
       </c>
       <c r="D139">
-        <v>1.18</v>
+        <v>3.23</v>
       </c>
       <c r="E139">
-        <v>1837.52</v>
+        <v>3709.55</v>
       </c>
       <c r="F139">
-        <v>0.46296296296296302</v>
+        <v>1</v>
       </c>
       <c r="G139">
-        <v>0.32608695652173908</v>
+        <v>0.98039215686274506</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -3418,16 +3418,16 @@
         <v>139</v>
       </c>
       <c r="C140">
-        <v>0.48</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>1.3</v>
+        <v>3.17</v>
       </c>
       <c r="E140">
-        <v>1925.96</v>
+        <v>3604.77</v>
       </c>
       <c r="G140">
-        <v>0.48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -3438,19 +3438,19 @@
         <v>140</v>
       </c>
       <c r="C141">
-        <v>0.35</v>
+        <v>0.99</v>
       </c>
       <c r="D141">
-        <v>1.37</v>
+        <v>3.31</v>
       </c>
       <c r="E141">
-        <v>1974.39</v>
+        <v>3770.21</v>
       </c>
       <c r="F141">
-        <v>0.45454545454545447</v>
+        <v>0.97727272727272729</v>
       </c>
       <c r="G141">
-        <v>0.26785714285714279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -3461,16 +3461,16 @@
         <v>141</v>
       </c>
       <c r="C142">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>1.35</v>
+        <v>3.06</v>
       </c>
       <c r="E142">
-        <v>2032.9</v>
+        <v>3509.94</v>
       </c>
       <c r="G142">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -3481,19 +3481,19 @@
         <v>142</v>
       </c>
       <c r="C143">
-        <v>0.4</v>
+        <v>0.98</v>
       </c>
       <c r="D143">
-        <v>1.39</v>
+        <v>3.22</v>
       </c>
       <c r="E143">
-        <v>2006.24</v>
+        <v>3746.28</v>
       </c>
       <c r="F143">
-        <v>0.35714285714285721</v>
+        <v>1</v>
       </c>
       <c r="G143">
-        <v>0.43103448275862072</v>
+        <v>0.96226415094339623</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -3504,16 +3504,16 @@
         <v>143</v>
       </c>
       <c r="C144">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>1.33</v>
+        <v>3.23</v>
       </c>
       <c r="E144">
-        <v>1985.72</v>
+        <v>3785.21</v>
       </c>
       <c r="G144">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -3524,19 +3524,19 @@
         <v>144</v>
       </c>
       <c r="C145">
-        <v>0.41</v>
+        <v>0.99</v>
       </c>
       <c r="D145">
-        <v>1.36</v>
+        <v>3.14</v>
       </c>
       <c r="E145">
-        <v>2042.25</v>
+        <v>3687.05</v>
       </c>
       <c r="F145">
-        <v>0.44186046511627908</v>
+        <v>0.98305084745762716</v>
       </c>
       <c r="G145">
-        <v>0.38596491228070168</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -3547,16 +3547,16 @@
         <v>145</v>
       </c>
       <c r="C146">
-        <v>0.38</v>
+        <v>0.99</v>
       </c>
       <c r="D146">
-        <v>1.33</v>
+        <v>3.31</v>
       </c>
       <c r="E146">
-        <v>2026.83</v>
+        <v>3839.14</v>
       </c>
       <c r="G146">
-        <v>0.38</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -3567,19 +3567,19 @@
         <v>146</v>
       </c>
       <c r="C147">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>1.32</v>
+        <v>3.3</v>
       </c>
       <c r="E147">
-        <v>2027.84</v>
+        <v>3813.75</v>
       </c>
       <c r="F147">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G147">
-        <v>0.41666666666666669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -3590,16 +3590,16 @@
         <v>147</v>
       </c>
       <c r="C148">
-        <v>0.39</v>
+        <v>0.99</v>
       </c>
       <c r="D148">
-        <v>1.39</v>
+        <v>3.79</v>
       </c>
       <c r="E148">
-        <v>2066.33</v>
+        <v>4323.57</v>
       </c>
       <c r="G148">
-        <v>0.39</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -3610,19 +3610,19 @@
         <v>148</v>
       </c>
       <c r="C149">
-        <v>0.42</v>
+        <v>0.99</v>
       </c>
       <c r="D149">
-        <v>1.56</v>
+        <v>2.84</v>
       </c>
       <c r="E149">
-        <v>2196.91</v>
+        <v>3414.09</v>
       </c>
       <c r="F149">
-        <v>0.42857142857142849</v>
+        <v>1</v>
       </c>
       <c r="G149">
-        <v>0.41176470588235292</v>
+        <v>0.98039215686274506</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -3633,16 +3633,16 @@
         <v>149</v>
       </c>
       <c r="C150">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>1.55</v>
+        <v>3.14</v>
       </c>
       <c r="E150">
-        <v>2201.56</v>
+        <v>3721.06</v>
       </c>
       <c r="G150">
-        <v>0.41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -3653,19 +3653,19 @@
         <v>150</v>
       </c>
       <c r="C151">
-        <v>0.41</v>
+        <v>0.99</v>
       </c>
       <c r="D151">
-        <v>1.54</v>
+        <v>3.48</v>
       </c>
       <c r="E151">
-        <v>2190.38</v>
+        <v>4096.17</v>
       </c>
       <c r="F151">
-        <v>0.44230769230769229</v>
+        <v>0.97560975609756095</v>
       </c>
       <c r="G151">
-        <v>0.375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -3676,16 +3676,16 @@
         <v>151</v>
       </c>
       <c r="C152">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>1.43</v>
+        <v>3.09</v>
       </c>
       <c r="E152">
-        <v>2119.3000000000002</v>
+        <v>3684.81</v>
       </c>
       <c r="G152">
-        <v>0.44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -3696,19 +3696,19 @@
         <v>152</v>
       </c>
       <c r="C153">
-        <v>0.38</v>
+        <v>0.98</v>
       </c>
       <c r="D153">
-        <v>1.62</v>
+        <v>4.09</v>
       </c>
       <c r="E153">
-        <v>2296.34</v>
+        <v>4678.08</v>
       </c>
       <c r="F153">
-        <v>0.42105263157894729</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="G153">
-        <v>0.32558139534883718</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -3719,16 +3719,16 @@
         <v>153</v>
       </c>
       <c r="C154">
-        <v>0.44</v>
+        <v>0.98</v>
       </c>
       <c r="D154">
-        <v>1.69</v>
+        <v>3.93</v>
       </c>
       <c r="E154">
-        <v>2255.71</v>
+        <v>4560.5200000000004</v>
       </c>
       <c r="G154">
-        <v>0.44</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -3739,19 +3739,19 @@
         <v>154</v>
       </c>
       <c r="C155">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>1.88</v>
+        <v>3.54</v>
       </c>
       <c r="E155">
-        <v>2287.2800000000002</v>
+        <v>4209.78</v>
       </c>
       <c r="F155">
-        <v>0.42857142857142849</v>
+        <v>1</v>
       </c>
       <c r="G155">
-        <v>0.34090909090909088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -3762,16 +3762,16 @@
         <v>155</v>
       </c>
       <c r="C156">
-        <v>0.51</v>
+        <v>0.99</v>
       </c>
       <c r="D156">
-        <v>1.76</v>
+        <v>3.54</v>
       </c>
       <c r="E156">
-        <v>2226.7600000000002</v>
+        <v>4257.3999999999996</v>
       </c>
       <c r="G156">
-        <v>0.51</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -3782,19 +3782,19 @@
         <v>156</v>
       </c>
       <c r="C157">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>2.0499999999999998</v>
+        <v>3.92</v>
       </c>
       <c r="E157">
-        <v>2363.98</v>
+        <v>4581.45</v>
       </c>
       <c r="F157">
-        <v>0.44444444444444442</v>
+        <v>1</v>
       </c>
       <c r="G157">
-        <v>0.3783783783783784</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -3805,16 +3805,16 @@
         <v>157</v>
       </c>
       <c r="C158">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>2.19</v>
+        <v>3.79</v>
       </c>
       <c r="E158">
-        <v>2468.34</v>
+        <v>4428.3500000000004</v>
       </c>
       <c r="G158">
-        <v>0.43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -3825,19 +3825,19 @@
         <v>158</v>
       </c>
       <c r="C159">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>2.17</v>
+        <v>4.43</v>
       </c>
       <c r="E159">
-        <v>2429.0100000000002</v>
+        <v>5092.87</v>
       </c>
       <c r="F159">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G159">
-        <v>0.5178571428571429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -3848,16 +3848,16 @@
         <v>159</v>
       </c>
       <c r="C160">
-        <v>0.45</v>
+        <v>0.96</v>
       </c>
       <c r="D160">
-        <v>2.23</v>
+        <v>3.96</v>
       </c>
       <c r="E160">
-        <v>2495.3200000000002</v>
+        <v>4583.95</v>
       </c>
       <c r="G160">
-        <v>0.45</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -3868,19 +3868,19 @@
         <v>160</v>
       </c>
       <c r="C161">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="D161">
-        <v>2.17</v>
+        <v>3.61</v>
       </c>
       <c r="E161">
-        <v>2434.2399999999998</v>
+        <v>4252.5200000000004</v>
       </c>
       <c r="F161">
-        <v>0.53488372093023251</v>
+        <v>0.98305084745762716</v>
       </c>
       <c r="G161">
-        <v>0.47368421052631582</v>
+        <v>0.97560975609756095</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -3891,16 +3891,16 @@
         <v>161</v>
       </c>
       <c r="C162">
-        <v>0.43</v>
+        <v>0.99</v>
       </c>
       <c r="D162">
-        <v>2.19</v>
+        <v>3.98</v>
       </c>
       <c r="E162">
-        <v>2556.48</v>
+        <v>4553.01</v>
       </c>
       <c r="G162">
-        <v>0.43</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -3911,19 +3911,19 @@
         <v>162</v>
       </c>
       <c r="C163">
-        <v>0.28999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>2.33</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="E163">
-        <v>2663.62</v>
+        <v>5541.02</v>
       </c>
       <c r="F163">
-        <v>0.27586206896551718</v>
+        <v>1</v>
       </c>
       <c r="G163">
-        <v>0.30952380952380948</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -3934,16 +3934,16 @@
         <v>163</v>
       </c>
       <c r="C164">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>2.2000000000000002</v>
+        <v>3.77</v>
       </c>
       <c r="E164">
-        <v>2560.7800000000002</v>
+        <v>4138.5600000000004</v>
       </c>
       <c r="G164">
-        <v>0.39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -3954,19 +3954,19 @@
         <v>164</v>
       </c>
       <c r="C165">
-        <v>0.4</v>
+        <v>0.99</v>
       </c>
       <c r="D165">
-        <v>2.2200000000000002</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="E165">
-        <v>2548.71</v>
+        <v>5117.25</v>
       </c>
       <c r="F165">
-        <v>0.31707317073170732</v>
+        <v>1</v>
       </c>
       <c r="G165">
-        <v>0.4576271186440678</v>
+        <v>0.97959183673469385</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -3977,16 +3977,16 @@
         <v>165</v>
       </c>
       <c r="C166">
-        <v>0.48</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>2.25</v>
+        <v>5.26</v>
       </c>
       <c r="E166">
-        <v>2650.93</v>
+        <v>5585.68</v>
       </c>
       <c r="G166">
-        <v>0.48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -3997,19 +3997,19 @@
         <v>166</v>
       </c>
       <c r="C167">
-        <v>0.35</v>
+        <v>0.98</v>
       </c>
       <c r="D167">
-        <v>2.29</v>
+        <v>5.4</v>
       </c>
       <c r="E167">
-        <v>2689.16</v>
+        <v>5754.98</v>
       </c>
       <c r="F167">
-        <v>0.34782608695652167</v>
+        <v>0.98039215686274506</v>
       </c>
       <c r="G167">
-        <v>0.35185185185185192</v>
+        <v>0.97959183673469385</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -4020,16 +4020,16 @@
         <v>167</v>
       </c>
       <c r="C168">
-        <v>0.38</v>
+        <v>0.99</v>
       </c>
       <c r="D168">
-        <v>2.2400000000000002</v>
+        <v>4.62</v>
       </c>
       <c r="E168">
-        <v>2628.35</v>
+        <v>4959.72</v>
       </c>
       <c r="G168">
-        <v>0.38</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -4040,19 +4040,19 @@
         <v>168</v>
       </c>
       <c r="C169">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>2.29</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="E169">
-        <v>2714.63</v>
+        <v>5472.65</v>
       </c>
       <c r="F169">
-        <v>0.47916666666666669</v>
+        <v>1</v>
       </c>
       <c r="G169">
-        <v>0.40384615384615391</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -4063,16 +4063,16 @@
         <v>169</v>
       </c>
       <c r="C170">
-        <v>0.44</v>
+        <v>0.96</v>
       </c>
       <c r="D170">
-        <v>2.2799999999999998</v>
+        <v>5.54</v>
       </c>
       <c r="E170">
-        <v>2732.6</v>
+        <v>5913.38</v>
       </c>
       <c r="G170">
-        <v>0.44</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -4083,19 +4083,19 @@
         <v>170</v>
       </c>
       <c r="C171">
-        <v>0.45</v>
+        <v>0.97</v>
       </c>
       <c r="D171">
-        <v>2.4</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="E171">
-        <v>2801.51</v>
+        <v>5235.2</v>
       </c>
       <c r="F171">
-        <v>0.3888888888888889</v>
+        <v>1</v>
       </c>
       <c r="G171">
-        <v>0.52173913043478259</v>
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -4106,16 +4106,16 @@
         <v>171</v>
       </c>
       <c r="C172">
-        <v>0.42</v>
+        <v>0.98</v>
       </c>
       <c r="D172">
-        <v>2.42</v>
+        <v>5.53</v>
       </c>
       <c r="E172">
-        <v>2904.2</v>
+        <v>5916.6</v>
       </c>
       <c r="G172">
-        <v>0.42</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -4126,19 +4126,19 @@
         <v>172</v>
       </c>
       <c r="C173">
-        <v>0.48</v>
+        <v>0.99</v>
       </c>
       <c r="D173">
-        <v>2.3199999999999998</v>
+        <v>5.21</v>
       </c>
       <c r="E173">
-        <v>2829.86</v>
+        <v>5648</v>
       </c>
       <c r="F173">
-        <v>0.48936170212765961</v>
+        <v>1</v>
       </c>
       <c r="G173">
-        <v>0.47169811320754718</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -4149,16 +4149,16 @@
         <v>173</v>
       </c>
       <c r="C174">
-        <v>0.46</v>
+        <v>0.99</v>
       </c>
       <c r="D174">
-        <v>2.25</v>
+        <v>4.67</v>
       </c>
       <c r="E174">
-        <v>2738.75</v>
+        <v>5129.1000000000004</v>
       </c>
       <c r="G174">
-        <v>0.46</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -4169,19 +4169,19 @@
         <v>174</v>
       </c>
       <c r="C175">
-        <v>0.33</v>
+        <v>0.99</v>
       </c>
       <c r="D175">
-        <v>2.39</v>
+        <v>4.67</v>
       </c>
       <c r="E175">
-        <v>2881.95</v>
+        <v>5134.68</v>
       </c>
       <c r="F175">
-        <v>0.37254901960784309</v>
+        <v>0.98181818181818181</v>
       </c>
       <c r="G175">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -4192,16 +4192,16 @@
         <v>175</v>
       </c>
       <c r="C176">
-        <v>0.39</v>
+        <v>0.98</v>
       </c>
       <c r="D176">
-        <v>2.39</v>
+        <v>5.41</v>
       </c>
       <c r="E176">
-        <v>2917.84</v>
+        <v>5863.6</v>
       </c>
       <c r="G176">
-        <v>0.39</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -4212,19 +4212,19 @@
         <v>176</v>
       </c>
       <c r="C177">
-        <v>0.39</v>
+        <v>0.99</v>
       </c>
       <c r="D177">
-        <v>2.33</v>
+        <v>4.95</v>
       </c>
       <c r="E177">
-        <v>2880.79</v>
+        <v>5442.39</v>
       </c>
       <c r="F177">
-        <v>0.39215686274509798</v>
+        <v>0.97959183673469385</v>
       </c>
       <c r="G177">
-        <v>0.38775510204081631</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -4235,16 +4235,16 @@
         <v>177</v>
       </c>
       <c r="C178">
-        <v>0.45</v>
+        <v>0.99</v>
       </c>
       <c r="D178">
-        <v>2.37</v>
+        <v>5.64</v>
       </c>
       <c r="E178">
-        <v>2932.87</v>
+        <v>6146.19</v>
       </c>
       <c r="G178">
-        <v>0.45</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -4255,19 +4255,19 @@
         <v>178</v>
       </c>
       <c r="C179">
-        <v>0.44</v>
+        <v>0.98</v>
       </c>
       <c r="D179">
-        <v>2.4900000000000002</v>
+        <v>5.56</v>
       </c>
       <c r="E179">
-        <v>3041.09</v>
+        <v>6058.77</v>
       </c>
       <c r="F179">
-        <v>0.33962264150943389</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="G179">
-        <v>0.55319148936170215</v>
+        <v>0.98181818181818181</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -4278,16 +4278,16 @@
         <v>179</v>
       </c>
       <c r="C180">
-        <v>0.42</v>
+        <v>0.99</v>
       </c>
       <c r="D180">
-        <v>2.42</v>
+        <v>5.15</v>
       </c>
       <c r="E180">
-        <v>2985.88</v>
+        <v>5645.64</v>
       </c>
       <c r="G180">
-        <v>0.42</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -4298,19 +4298,19 @@
         <v>180</v>
       </c>
       <c r="C181">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="D181">
-        <v>2.39</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="E181">
-        <v>3012.3</v>
+        <v>5377.94</v>
       </c>
       <c r="F181">
-        <v>0.54385964912280704</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="G181">
-        <v>0.44186046511627908</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -4321,16 +4321,16 @@
         <v>181</v>
       </c>
       <c r="C182">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>2.44</v>
+        <v>5.42</v>
       </c>
       <c r="E182">
-        <v>3047.89</v>
+        <v>5968.99</v>
       </c>
       <c r="G182">
-        <v>0.41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -4341,19 +4341,19 @@
         <v>182</v>
       </c>
       <c r="C183">
-        <v>0.38</v>
+        <v>0.99</v>
       </c>
       <c r="D183">
-        <v>2.4</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="E183">
-        <v>3032.63</v>
+        <v>5319.25</v>
       </c>
       <c r="F183">
-        <v>0.34545454545454551</v>
+        <v>1</v>
       </c>
       <c r="G183">
-        <v>0.42222222222222222</v>
+        <v>0.98039215686274506</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -4364,16 +4364,16 @@
         <v>183</v>
       </c>
       <c r="C184">
-        <v>0.39</v>
+        <v>0.99</v>
       </c>
       <c r="D184">
-        <v>2.5099999999999998</v>
+        <v>6.14</v>
       </c>
       <c r="E184">
-        <v>3144.2</v>
+        <v>6551.44</v>
       </c>
       <c r="G184">
-        <v>0.39</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -4384,19 +4384,19 @@
         <v>184</v>
       </c>
       <c r="C185">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>2.69</v>
+        <v>6.31</v>
       </c>
       <c r="E185">
-        <v>3259.74</v>
+        <v>6774.42</v>
       </c>
       <c r="F185">
-        <v>0.49090909090909091</v>
+        <v>1</v>
       </c>
       <c r="G185">
-        <v>0.48888888888888887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -4407,16 +4407,16 @@
         <v>185</v>
       </c>
       <c r="C186">
-        <v>0.37</v>
+        <v>0.98</v>
       </c>
       <c r="D186">
-        <v>2.39</v>
+        <v>5.75</v>
       </c>
       <c r="E186">
-        <v>3064.68</v>
+        <v>6255.47</v>
       </c>
       <c r="G186">
-        <v>0.37</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -4427,19 +4427,19 @@
         <v>186</v>
       </c>
       <c r="C187">
-        <v>0.41</v>
+        <v>0.98</v>
       </c>
       <c r="D187">
-        <v>2.63</v>
+        <v>5.95</v>
       </c>
       <c r="E187">
-        <v>3240.87</v>
+        <v>6458.01</v>
       </c>
       <c r="F187">
-        <v>0.53333333333333333</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="G187">
-        <v>0.30909090909090908</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -4450,16 +4450,16 @@
         <v>187</v>
       </c>
       <c r="C188">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
       <c r="D188">
-        <v>2.61</v>
+        <v>5.86</v>
       </c>
       <c r="E188">
-        <v>3251.28</v>
+        <v>6366.46</v>
       </c>
       <c r="G188">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -4470,19 +4470,19 @@
         <v>188</v>
       </c>
       <c r="C189">
-        <v>0.51</v>
+        <v>0.99</v>
       </c>
       <c r="D189">
-        <v>2.5299999999999998</v>
+        <v>6.53</v>
       </c>
       <c r="E189">
-        <v>3201.29</v>
+        <v>7026.2</v>
       </c>
       <c r="F189">
-        <v>0.51162790697674421</v>
+        <v>1</v>
       </c>
       <c r="G189">
-        <v>0.50877192982456143</v>
+        <v>0.98076923076923073</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -4493,16 +4493,16 @@
         <v>189</v>
       </c>
       <c r="C190">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>2.73</v>
+        <v>5.03</v>
       </c>
       <c r="E190">
-        <v>3405.5</v>
+        <v>5558.65</v>
       </c>
       <c r="G190">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -4513,19 +4513,19 @@
         <v>190</v>
       </c>
       <c r="C191">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>2.89</v>
+        <v>5.41</v>
       </c>
       <c r="E191">
-        <v>3417.35</v>
+        <v>5967.94</v>
       </c>
       <c r="F191">
-        <v>0.42857142857142849</v>
+        <v>1</v>
       </c>
       <c r="G191">
-        <v>0.49019607843137247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -4536,16 +4536,16 @@
         <v>191</v>
       </c>
       <c r="C192">
-        <v>0.43</v>
+        <v>0.99</v>
       </c>
       <c r="D192">
-        <v>2.83</v>
+        <v>5.94</v>
       </c>
       <c r="E192">
-        <v>3367.36</v>
+        <v>6539.62</v>
       </c>
       <c r="G192">
-        <v>0.43</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -4556,19 +4556,19 @@
         <v>192</v>
       </c>
       <c r="C193">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>2.96</v>
+        <v>5.24</v>
       </c>
       <c r="E193">
-        <v>3516.24</v>
+        <v>5827.68</v>
       </c>
       <c r="F193">
-        <v>0.43396226415094341</v>
+        <v>1</v>
       </c>
       <c r="G193">
-        <v>0.42553191489361702</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
@@ -4579,16 +4579,16 @@
         <v>193</v>
       </c>
       <c r="C194">
-        <v>0.45</v>
+        <v>0.96</v>
       </c>
       <c r="D194">
-        <v>2.88</v>
+        <v>7.3</v>
       </c>
       <c r="E194">
-        <v>3368.96</v>
+        <v>7912.79</v>
       </c>
       <c r="G194">
-        <v>0.45</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -4599,19 +4599,19 @@
         <v>194</v>
       </c>
       <c r="C195">
-        <v>0.49</v>
+        <v>0.99</v>
       </c>
       <c r="D195">
-        <v>3.12</v>
+        <v>6.14</v>
       </c>
       <c r="E195">
-        <v>3575.88</v>
+        <v>6801.08</v>
       </c>
       <c r="F195">
-        <v>0.50943396226415094</v>
+        <v>0.98181818181818181</v>
       </c>
       <c r="G195">
-        <v>0.46808510638297868</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -4622,16 +4622,16 @@
         <v>195</v>
       </c>
       <c r="C196">
-        <v>0.42</v>
+        <v>0.99</v>
       </c>
       <c r="D196">
-        <v>3.27</v>
+        <v>6.41</v>
       </c>
       <c r="E196">
-        <v>3595.24</v>
+        <v>7073.62</v>
       </c>
       <c r="G196">
-        <v>0.42</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -4642,19 +4642,19 @@
         <v>196</v>
       </c>
       <c r="C197">
-        <v>0.41</v>
+        <v>0.98</v>
       </c>
       <c r="D197">
-        <v>3.25</v>
+        <v>6.59</v>
       </c>
       <c r="E197">
-        <v>3565.17</v>
+        <v>7231.63</v>
       </c>
       <c r="F197">
-        <v>0.34146341463414642</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="G197">
-        <v>0.4576271186440678</v>
+        <v>0.98076923076923073</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -4665,16 +4665,16 @@
         <v>197</v>
       </c>
       <c r="C198">
-        <v>0.45</v>
+        <v>0.99</v>
       </c>
       <c r="D198">
-        <v>3.32</v>
+        <v>5.67</v>
       </c>
       <c r="E198">
-        <v>3627.19</v>
+        <v>6268.55</v>
       </c>
       <c r="G198">
-        <v>0.45</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -4685,19 +4685,19 @@
         <v>198</v>
       </c>
       <c r="C199">
-        <v>0.38</v>
+        <v>0.99</v>
       </c>
       <c r="D199">
-        <v>3.33</v>
+        <v>7.01</v>
       </c>
       <c r="E199">
-        <v>3683.73</v>
+        <v>7568.76</v>
       </c>
       <c r="F199">
-        <v>0.38461538461538458</v>
+        <v>1</v>
       </c>
       <c r="G199">
-        <v>0.375</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -4708,16 +4708,16 @@
         <v>199</v>
       </c>
       <c r="C200">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>3.33</v>
+        <v>6.12</v>
       </c>
       <c r="E200">
-        <v>3734.75</v>
+        <v>6702.46</v>
       </c>
       <c r="G200">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>3.15</v>
+        <v>3.09</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>3.96</v>
+        <v>9.6</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>4.28</v>
+        <v>15.62</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -4797,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <v>4.59</v>
+        <v>26.07</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="E205">
-        <v>62.35</v>
+        <v>561.79</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -4837,10 +4837,10 @@
         <v>0</v>
       </c>
       <c r="D206">
-        <v>0.01</v>
+        <v>0.93</v>
       </c>
       <c r="E206">
-        <v>138.43</v>
+        <v>1577.82</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -4860,10 +4860,10 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E207">
-        <v>201.62</v>
+        <v>2862.19</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -4877,19 +4877,19 @@
         <v>8</v>
       </c>
       <c r="C208">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E208">
-        <v>286.97000000000003</v>
+        <v>241.37</v>
       </c>
       <c r="F208">
-        <v>0.91228070175438591</v>
+        <v>1</v>
       </c>
       <c r="G208">
-        <v>0.93023255813953487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -4900,16 +4900,16 @@
         <v>9</v>
       </c>
       <c r="C209">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E209">
-        <v>401.36</v>
+        <v>333.99</v>
       </c>
       <c r="G209">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <v>492.61</v>
+        <v>420.74</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -4943,16 +4943,16 @@
         <v>11</v>
       </c>
       <c r="C211">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E211">
-        <v>625.77</v>
+        <v>546.61</v>
       </c>
       <c r="G211">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -4963,16 +4963,16 @@
         <v>12</v>
       </c>
       <c r="C212">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="E212">
-        <v>797.21</v>
+        <v>724.02</v>
       </c>
       <c r="F212">
-        <v>0.98113207547169812</v>
+        <v>1</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -4986,16 +4986,16 @@
         <v>13</v>
       </c>
       <c r="C213">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>0.24</v>
+        <v>0.03</v>
       </c>
       <c r="E213">
-        <v>1010.38</v>
+        <v>874.2</v>
       </c>
       <c r="G213">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -5006,19 +5006,19 @@
         <v>14</v>
       </c>
       <c r="C214">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="E214">
-        <v>1263.0999999999999</v>
+        <v>1087.75</v>
       </c>
       <c r="F214">
-        <v>0.97727272727272729</v>
+        <v>1</v>
       </c>
       <c r="G214">
-        <v>0.9821428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -5032,10 +5032,10 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="E215">
-        <v>1487.14</v>
+        <v>1318.93</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -5049,16 +5049,16 @@
         <v>16</v>
       </c>
       <c r="C216">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>1.1499999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="E216">
-        <v>1763.46</v>
+        <v>1573.67</v>
       </c>
       <c r="F216">
-        <v>0.97959183673469385</v>
+        <v>1</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -5072,16 +5072,16 @@
         <v>17</v>
       </c>
       <c r="C217">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>1.42</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E217">
-        <v>2108.12</v>
+        <v>1899.77</v>
       </c>
       <c r="G217">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -5092,16 +5092,16 @@
         <v>18</v>
       </c>
       <c r="C218">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="E218">
-        <v>2510.61</v>
+        <v>2211.09</v>
       </c>
       <c r="F218">
-        <v>0.97674418604651159</v>
+        <v>1</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -5118,10 +5118,10 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>2.23</v>
+        <v>2.02</v>
       </c>
       <c r="E219">
-        <v>2831.57</v>
+        <v>2586.71</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -5138,10 +5138,10 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>2.98</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="E220">
-        <v>3325.62</v>
+        <v>2991.82</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -5158,16 +5158,16 @@
         <v>21</v>
       </c>
       <c r="C221">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="E221">
-        <v>3913.91</v>
+        <v>3459.14</v>
       </c>
       <c r="G221">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -5181,10 +5181,10 @@
         <v>1</v>
       </c>
       <c r="D222">
-        <v>3.87</v>
+        <v>3.35</v>
       </c>
       <c r="E222">
-        <v>4321.58</v>
+        <v>4059.69</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -5201,16 +5201,16 @@
         <v>23</v>
       </c>
       <c r="C223">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>4.47</v>
+        <v>4.04</v>
       </c>
       <c r="E223">
-        <v>5036.2299999999996</v>
+        <v>4545.8900000000003</v>
       </c>
       <c r="G223">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -5221,19 +5221,19 @@
         <v>24</v>
       </c>
       <c r="C224">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>5.36</v>
+        <v>4.96</v>
       </c>
       <c r="E224">
-        <v>5737.78</v>
+        <v>5099.7700000000004</v>
       </c>
       <c r="F224">
         <v>1</v>
       </c>
       <c r="G224">
-        <v>0.98076923076923073</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -5247,10 +5247,10 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <v>5.81</v>
+        <v>5.04</v>
       </c>
       <c r="E225">
-        <v>6387.76</v>
+        <v>5759.51</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -5264,19 +5264,19 @@
         <v>26</v>
       </c>
       <c r="C226">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>6.63</v>
+        <v>6</v>
       </c>
       <c r="E226">
-        <v>7105.45</v>
+        <v>6388.11</v>
       </c>
       <c r="F226">
         <v>1</v>
       </c>
       <c r="G226">
-        <v>0.98113207547169812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -5287,16 +5287,16 @@
         <v>27</v>
       </c>
       <c r="C227">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>7.42</v>
+        <v>6.98</v>
       </c>
       <c r="E227">
-        <v>7876.09</v>
+        <v>7175.47</v>
       </c>
       <c r="G227">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -5310,10 +5310,10 @@
         <v>1</v>
       </c>
       <c r="D228">
-        <v>8.1300000000000008</v>
+        <v>7.31</v>
       </c>
       <c r="E228">
-        <v>8631.7099999999991</v>
+        <v>8037.22</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -5330,16 +5330,16 @@
         <v>29</v>
       </c>
       <c r="C229">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>9.14</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="E229">
-        <v>9688.56</v>
+        <v>8748.5499999999993</v>
       </c>
       <c r="G229">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -5350,19 +5350,19 @@
         <v>30</v>
       </c>
       <c r="C230">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D230">
-        <v>10.07</v>
+        <v>9</v>
       </c>
       <c r="E230">
-        <v>10565.37</v>
+        <v>9587.2000000000007</v>
       </c>
       <c r="F230">
         <v>1</v>
       </c>
       <c r="G230">
-        <v>0.96226415094339623</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -5373,16 +5373,16 @@
         <v>31</v>
       </c>
       <c r="C231">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>11.08</v>
+        <v>10.11</v>
       </c>
       <c r="E231">
-        <v>11552.34</v>
+        <v>10643.68</v>
       </c>
       <c r="G231">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -5396,10 +5396,10 @@
         <v>1</v>
       </c>
       <c r="D232">
-        <v>11.95</v>
+        <v>11</v>
       </c>
       <c r="E232">
-        <v>12481.86</v>
+        <v>11509.9</v>
       </c>
       <c r="F232">
         <v>1</v>
@@ -5416,16 +5416,16 @@
         <v>33</v>
       </c>
       <c r="C233">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>13.19</v>
+        <v>12</v>
       </c>
       <c r="E233">
-        <v>13671.02</v>
+        <v>12594.57</v>
       </c>
       <c r="G233">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -5439,10 +5439,10 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>14.42</v>
+        <v>13.33</v>
       </c>
       <c r="E234">
-        <v>14943.04</v>
+        <v>13967.8</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -5459,16 +5459,16 @@
         <v>35</v>
       </c>
       <c r="C235">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>15.6</v>
+        <v>14.27</v>
       </c>
       <c r="E235">
-        <v>16118.98</v>
+        <v>14919.3</v>
       </c>
       <c r="G235">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -5482,10 +5482,10 @@
         <v>1</v>
       </c>
       <c r="D236">
-        <v>16.98</v>
+        <v>15.8</v>
       </c>
       <c r="E236">
-        <v>17521.73</v>
+        <v>16150.22</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -5505,10 +5505,10 @@
         <v>1</v>
       </c>
       <c r="D237">
-        <v>18.559999999999999</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="E237">
-        <v>19038.330000000002</v>
+        <v>17586.78</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -5522,19 +5522,19 @@
         <v>38</v>
       </c>
       <c r="C238">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>20</v>
+        <v>18.62</v>
       </c>
       <c r="E238">
-        <v>20470.689999999999</v>
+        <v>19206.84</v>
       </c>
       <c r="F238">
         <v>1</v>
       </c>
       <c r="G238">
-        <v>0.97727272727272729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -5545,16 +5545,16 @@
         <v>39</v>
       </c>
       <c r="C239">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>21.75</v>
+        <v>20.18</v>
       </c>
       <c r="E239">
-        <v>22221.81</v>
+        <v>20539.689999999999</v>
       </c>
       <c r="G239">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -5565,16 +5565,16 @@
         <v>40</v>
       </c>
       <c r="C240">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>23.52</v>
+        <v>21.24</v>
       </c>
       <c r="E240">
-        <v>23979.19</v>
+        <v>21798.07</v>
       </c>
       <c r="F240">
-        <v>0.98113207547169812</v>
+        <v>1</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -5588,16 +5588,16 @@
         <v>41</v>
       </c>
       <c r="C241">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>25.2</v>
+        <v>23.35</v>
       </c>
       <c r="E241">
-        <v>25696.29</v>
+        <v>23783.21</v>
       </c>
       <c r="G241">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
@@ -5608,19 +5608,19 @@
         <v>42</v>
       </c>
       <c r="C242">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>27.31</v>
+        <v>24.8</v>
       </c>
       <c r="E242">
-        <v>27828.46</v>
+        <v>25280.02</v>
       </c>
       <c r="F242">
         <v>1</v>
       </c>
       <c r="G242">
-        <v>0.97872340425531912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
@@ -5631,16 +5631,16 @@
         <v>43</v>
       </c>
       <c r="C243">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>29.7</v>
+        <v>27.49</v>
       </c>
       <c r="E243">
-        <v>30160.26</v>
+        <v>28051.32</v>
       </c>
       <c r="G243">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
@@ -5651,16 +5651,16 @@
         <v>44</v>
       </c>
       <c r="C244">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>31.35</v>
+        <v>28.66</v>
       </c>
       <c r="E244">
-        <v>31812.400000000001</v>
+        <v>29197.26</v>
       </c>
       <c r="F244">
-        <v>0.97916666666666663</v>
+        <v>1</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -5677,10 +5677,10 @@
         <v>1</v>
       </c>
       <c r="D245">
-        <v>34.1</v>
+        <v>30.82</v>
       </c>
       <c r="E245">
-        <v>34615.870000000003</v>
+        <v>31359.46</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -5694,16 +5694,16 @@
         <v>46</v>
       </c>
       <c r="C246">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>36.44</v>
+        <v>32.83</v>
       </c>
       <c r="E246">
-        <v>37005</v>
+        <v>33390.14</v>
       </c>
       <c r="F246">
-        <v>0.98148148148148151</v>
+        <v>1</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -5717,16 +5717,16 @@
         <v>47</v>
       </c>
       <c r="C247">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D247">
-        <v>38.94</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="E247">
-        <v>39410.300000000003</v>
+        <v>35675.129999999997</v>
       </c>
       <c r="G247">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
@@ -5740,10 +5740,10 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>41.13</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="E248">
-        <v>41567.67</v>
+        <v>38209.46</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -5763,10 +5763,10 @@
         <v>1</v>
       </c>
       <c r="D249">
-        <v>44.73</v>
+        <v>40.01</v>
       </c>
       <c r="E249">
-        <v>45173.5</v>
+        <v>40460.01</v>
       </c>
       <c r="G249">
         <v>1</v>
@@ -5780,16 +5780,16 @@
         <v>50</v>
       </c>
       <c r="C250">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>46.87</v>
+        <v>42.05</v>
       </c>
       <c r="E250">
-        <v>47349.06</v>
+        <v>42555.79</v>
       </c>
       <c r="F250">
-        <v>0.98360655737704916</v>
+        <v>1</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -5803,16 +5803,16 @@
         <v>51</v>
       </c>
       <c r="C251">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>49.27</v>
+        <v>44.6</v>
       </c>
       <c r="E251">
-        <v>49789.82</v>
+        <v>45109.33</v>
       </c>
       <c r="G251">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -5823,19 +5823,19 @@
         <v>52</v>
       </c>
       <c r="C252">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>52</v>
+        <v>48.28</v>
       </c>
       <c r="E252">
-        <v>52541.95</v>
+        <v>48788.639999999999</v>
       </c>
       <c r="F252">
-        <v>0.97826086956521741</v>
+        <v>1</v>
       </c>
       <c r="G252">
-        <v>0.94444444444444442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
@@ -5849,10 +5849,10 @@
         <v>1</v>
       </c>
       <c r="D253">
-        <v>58.46</v>
+        <v>51.75</v>
       </c>
       <c r="E253">
-        <v>58933.1</v>
+        <v>52231.93</v>
       </c>
       <c r="G253">
         <v>1</v>
@@ -5866,16 +5866,16 @@
         <v>54</v>
       </c>
       <c r="C254">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>58.04</v>
+        <v>53.63</v>
       </c>
       <c r="E254">
-        <v>58540.7</v>
+        <v>54078.96</v>
       </c>
       <c r="F254">
-        <v>0.97727272727272729</v>
+        <v>1</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -5892,10 +5892,10 @@
         <v>1</v>
       </c>
       <c r="D255">
-        <v>61.41</v>
+        <v>56.61</v>
       </c>
       <c r="E255">
-        <v>61942.28</v>
+        <v>57084.34</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -5912,10 +5912,10 @@
         <v>1</v>
       </c>
       <c r="D256">
-        <v>66.61</v>
+        <v>60.36</v>
       </c>
       <c r="E256">
-        <v>67125.98</v>
+        <v>60912.9</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -5932,16 +5932,16 @@
         <v>57</v>
       </c>
       <c r="C257">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D257">
-        <v>68.400000000000006</v>
+        <v>62.76</v>
       </c>
       <c r="E257">
-        <v>68939.11</v>
+        <v>63273.64</v>
       </c>
       <c r="G257">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -5952,16 +5952,16 @@
         <v>58</v>
       </c>
       <c r="C258">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>70.61</v>
+        <v>67.67</v>
       </c>
       <c r="E258">
-        <v>71087.59</v>
+        <v>68208.03</v>
       </c>
       <c r="F258">
-        <v>0.98039215686274506</v>
+        <v>1</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -5978,10 +5978,10 @@
         <v>1</v>
       </c>
       <c r="D259">
-        <v>74.59</v>
+        <v>70.739999999999995</v>
       </c>
       <c r="E259">
-        <v>75100.97</v>
+        <v>71237.740000000005</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -5995,19 +5995,19 @@
         <v>60</v>
       </c>
       <c r="C260">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>79.17</v>
+        <v>75.03</v>
       </c>
       <c r="E260">
-        <v>79641.56</v>
+        <v>75523.23</v>
       </c>
       <c r="F260">
         <v>1</v>
       </c>
       <c r="G260">
-        <v>0.96296296296296291</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -6018,16 +6018,16 @@
         <v>61</v>
       </c>
       <c r="C261">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D261">
-        <v>83.04</v>
+        <v>78</v>
       </c>
       <c r="E261">
-        <v>83558.12</v>
+        <v>78465.63</v>
       </c>
       <c r="G261">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -6038,19 +6038,19 @@
         <v>62</v>
       </c>
       <c r="C262">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>89.52</v>
+        <v>82.46</v>
       </c>
       <c r="E262">
-        <v>90041.68</v>
+        <v>82934.16</v>
       </c>
       <c r="F262">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G262">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -6061,16 +6061,16 @@
         <v>63</v>
       </c>
       <c r="C263">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>91.73</v>
+        <v>87.14</v>
       </c>
       <c r="E263">
-        <v>92205.31</v>
+        <v>87622.46</v>
       </c>
       <c r="G263">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -6081,16 +6081,16 @@
         <v>64</v>
       </c>
       <c r="C264">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>95.85</v>
+        <v>90.04</v>
       </c>
       <c r="E264">
-        <v>96347.66</v>
+        <v>90572.63</v>
       </c>
       <c r="F264">
-        <v>0.98181818181818181</v>
+        <v>1</v>
       </c>
       <c r="G264">
         <v>1</v>
@@ -6104,16 +6104,16 @@
         <v>65</v>
       </c>
       <c r="C265">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>99.65</v>
+        <v>95.1</v>
       </c>
       <c r="E265">
-        <v>100157.94</v>
+        <v>95637.86</v>
       </c>
       <c r="G265">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
@@ -6124,19 +6124,19 @@
         <v>66</v>
       </c>
       <c r="C266">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D266">
-        <v>105.26</v>
+        <v>93.49</v>
       </c>
       <c r="E266">
-        <v>105729.34</v>
+        <v>93947.41</v>
       </c>
       <c r="F266">
         <v>1</v>
       </c>
       <c r="G266">
-        <v>0.98113207547169812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
@@ -6147,16 +6147,16 @@
         <v>67</v>
       </c>
       <c r="C267">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>114.13</v>
+        <v>98.46</v>
       </c>
       <c r="E267">
-        <v>114617.66</v>
+        <v>98980.75</v>
       </c>
       <c r="G267">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
@@ -6167,19 +6167,19 @@
         <v>68</v>
       </c>
       <c r="C268">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>114.74</v>
+        <v>99.57</v>
       </c>
       <c r="E268">
-        <v>115221.9</v>
+        <v>100065.95</v>
       </c>
       <c r="F268">
         <v>1</v>
       </c>
       <c r="G268">
-        <v>0.97826086956521741</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
@@ -6193,10 +6193,10 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <v>119.63</v>
+        <v>113.2</v>
       </c>
       <c r="E269">
-        <v>120069.94</v>
+        <v>113732.89</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -6210,19 +6210,19 @@
         <v>70</v>
       </c>
       <c r="C270">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D270">
-        <v>126.02</v>
+        <v>145.32</v>
       </c>
       <c r="E270">
-        <v>126560.14</v>
+        <v>145822.70000000001</v>
       </c>
       <c r="F270">
         <v>1</v>
       </c>
       <c r="G270">
-        <v>0.97674418604651159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
@@ -6236,10 +6236,10 @@
         <v>1</v>
       </c>
       <c r="D271">
-        <v>130.38999999999999</v>
+        <v>148.68</v>
       </c>
       <c r="E271">
-        <v>130872.16</v>
+        <v>149153.07999999999</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -6256,10 +6256,10 @@
         <v>1</v>
       </c>
       <c r="D272">
-        <v>135.72</v>
+        <v>151.69999999999999</v>
       </c>
       <c r="E272">
-        <v>136229.35</v>
+        <v>152145</v>
       </c>
       <c r="F272">
         <v>1</v>
@@ -6279,10 +6279,10 @@
         <v>1</v>
       </c>
       <c r="D273">
-        <v>142.41</v>
+        <v>152.13</v>
       </c>
       <c r="E273">
-        <v>142911.72</v>
+        <v>152636.81</v>
       </c>
       <c r="G273">
         <v>1</v>
@@ -6296,16 +6296,16 @@
         <v>74</v>
       </c>
       <c r="C274">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D274">
-        <v>150.09</v>
+        <v>155.03</v>
       </c>
       <c r="E274">
-        <v>150601.13</v>
+        <v>155531.62</v>
       </c>
       <c r="F274">
-        <v>0.97727272727272729</v>
+        <v>1</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -6319,16 +6319,16 @@
         <v>75</v>
       </c>
       <c r="C275">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D275">
-        <v>153.75</v>
+        <v>156.63999999999999</v>
       </c>
       <c r="E275">
-        <v>154264.6</v>
+        <v>157152.34</v>
       </c>
       <c r="G275">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
@@ -6342,10 +6342,10 @@
         <v>1</v>
       </c>
       <c r="D276">
-        <v>163.08000000000001</v>
+        <v>161.04</v>
       </c>
       <c r="E276">
-        <v>163581.29999999999</v>
+        <v>161466.25</v>
       </c>
       <c r="F276">
         <v>1</v>
@@ -6362,16 +6362,16 @@
         <v>77</v>
       </c>
       <c r="C277">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D277">
-        <v>167.01</v>
+        <v>163.26</v>
       </c>
       <c r="E277">
-        <v>167576.45000000001</v>
+        <v>163728.64000000001</v>
       </c>
       <c r="G277">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
@@ -6382,19 +6382,19 @@
         <v>78</v>
       </c>
       <c r="C278">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D278">
-        <v>175.11</v>
+        <v>170.28</v>
       </c>
       <c r="E278">
-        <v>175591.45</v>
+        <v>170800.44</v>
       </c>
       <c r="F278">
-        <v>0.98076923076923073</v>
+        <v>1</v>
       </c>
       <c r="G278">
-        <v>0.97916666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
@@ -6405,16 +6405,16 @@
         <v>79</v>
       </c>
       <c r="C279">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D279">
-        <v>181.65</v>
+        <v>174.96</v>
       </c>
       <c r="E279">
-        <v>182131.43</v>
+        <v>175449.39</v>
       </c>
       <c r="G279">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
@@ -6428,10 +6428,10 @@
         <v>1</v>
       </c>
       <c r="D280">
-        <v>193.21</v>
+        <v>177.33</v>
       </c>
       <c r="E280">
-        <v>193689.12</v>
+        <v>177864.32000000001</v>
       </c>
       <c r="F280">
         <v>1</v>
@@ -6448,16 +6448,16 @@
         <v>81</v>
       </c>
       <c r="C281">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D281">
-        <v>204.46</v>
+        <v>188.17</v>
       </c>
       <c r="E281">
-        <v>204927.3</v>
+        <v>188667.14</v>
       </c>
       <c r="G281">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
@@ -6468,19 +6468,19 @@
         <v>82</v>
       </c>
       <c r="C282">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D282">
-        <v>218.99</v>
+        <v>191.53</v>
       </c>
       <c r="E282">
-        <v>219469.98</v>
+        <v>192023.65</v>
       </c>
       <c r="F282">
-        <v>0.96296296296296291</v>
+        <v>1</v>
       </c>
       <c r="G282">
-        <v>0.97826086956521741</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
@@ -6491,16 +6491,16 @@
         <v>83</v>
       </c>
       <c r="C283">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D283">
-        <v>232.17</v>
+        <v>198.3</v>
       </c>
       <c r="E283">
-        <v>232664.29</v>
+        <v>198810.14</v>
       </c>
       <c r="G283">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
@@ -6511,19 +6511,19 @@
         <v>84</v>
       </c>
       <c r="C284">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>232.08</v>
+        <v>209.57</v>
       </c>
       <c r="E284">
-        <v>232534.14</v>
+        <v>210093.33</v>
       </c>
       <c r="F284">
         <v>1</v>
       </c>
       <c r="G284">
-        <v>0.97142857142857142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
@@ -6537,10 +6537,10 @@
         <v>1</v>
       </c>
       <c r="D285">
-        <v>247.48</v>
+        <v>214.38</v>
       </c>
       <c r="E285">
-        <v>247960.17</v>
+        <v>214897.53</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -6554,19 +6554,19 @@
         <v>86</v>
       </c>
       <c r="C286">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D286">
-        <v>288.87</v>
+        <v>216.01</v>
       </c>
       <c r="E286">
-        <v>289329.09999999998</v>
+        <v>216509.88</v>
       </c>
       <c r="F286">
-        <v>0.98148148148148151</v>
+        <v>1</v>
       </c>
       <c r="G286">
-        <v>0.97826086956521741</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
@@ -6577,16 +6577,16 @@
         <v>87</v>
       </c>
       <c r="C287">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D287">
-        <v>257.57</v>
+        <v>226.76</v>
       </c>
       <c r="E287">
-        <v>258099.09</v>
+        <v>227270.09</v>
       </c>
       <c r="G287">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
@@ -6597,19 +6597,19 @@
         <v>88</v>
       </c>
       <c r="C288">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D288">
-        <v>265.20999999999998</v>
+        <v>232.19</v>
       </c>
       <c r="E288">
-        <v>265704.84000000003</v>
+        <v>232672.13</v>
       </c>
       <c r="F288">
         <v>1</v>
       </c>
       <c r="G288">
-        <v>0.98113207547169812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
@@ -6620,16 +6620,16 @@
         <v>89</v>
       </c>
       <c r="C289">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D289">
-        <v>226.08</v>
+        <v>240.44</v>
       </c>
       <c r="E289">
-        <v>226634.71</v>
+        <v>240938.23</v>
       </c>
       <c r="G289">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
@@ -6640,16 +6640,16 @@
         <v>90</v>
       </c>
       <c r="C290">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D290">
-        <v>234.55</v>
+        <v>250.57</v>
       </c>
       <c r="E290">
-        <v>235076.04</v>
+        <v>251013.82</v>
       </c>
       <c r="F290">
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="G290">
         <v>1</v>
@@ -6663,16 +6663,16 @@
         <v>91</v>
       </c>
       <c r="C291">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D291">
-        <v>231.21</v>
+        <v>255.76</v>
       </c>
       <c r="E291">
-        <v>231747.42</v>
+        <v>256254.19</v>
       </c>
       <c r="G291">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
@@ -6686,10 +6686,10 @@
         <v>1</v>
       </c>
       <c r="D292">
-        <v>237.05</v>
+        <v>264.75</v>
       </c>
       <c r="E292">
-        <v>237575.56</v>
+        <v>265271.24</v>
       </c>
       <c r="F292">
         <v>1</v>
@@ -6706,16 +6706,16 @@
         <v>93</v>
       </c>
       <c r="C293">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D293">
-        <v>246.18</v>
+        <v>271.31</v>
       </c>
       <c r="E293">
-        <v>246670.93</v>
+        <v>271772.40000000002</v>
       </c>
       <c r="G293">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
@@ -6726,19 +6726,19 @@
         <v>94</v>
       </c>
       <c r="C294">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D294">
-        <v>253.93</v>
+        <v>280.02</v>
       </c>
       <c r="E294">
-        <v>254411.66</v>
+        <v>280527.86</v>
       </c>
       <c r="F294">
-        <v>0.96363636363636362</v>
+        <v>1</v>
       </c>
       <c r="G294">
-        <v>0.97777777777777775</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
@@ -6749,16 +6749,16 @@
         <v>95</v>
       </c>
       <c r="C295">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D295">
-        <v>262.61</v>
+        <v>297.27999999999997</v>
       </c>
       <c r="E295">
-        <v>263112.57</v>
+        <v>297715.73</v>
       </c>
       <c r="G295">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
@@ -6769,16 +6769,16 @@
         <v>96</v>
       </c>
       <c r="C296">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D296">
-        <v>269.13</v>
+        <v>301.63</v>
       </c>
       <c r="E296">
-        <v>269665.56</v>
+        <v>302157.64</v>
       </c>
       <c r="F296">
-        <v>0.97959183673469385</v>
+        <v>1</v>
       </c>
       <c r="G296">
         <v>1</v>
@@ -6792,16 +6792,16 @@
         <v>97</v>
       </c>
       <c r="C297">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D297">
-        <v>278.91000000000003</v>
+        <v>309.19</v>
       </c>
       <c r="E297">
-        <v>279421.78999999998</v>
+        <v>309632.28999999998</v>
       </c>
       <c r="G297">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
@@ -6812,16 +6812,16 @@
         <v>98</v>
       </c>
       <c r="C298">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D298">
-        <v>287.20999999999998</v>
+        <v>333.29</v>
       </c>
       <c r="E298">
-        <v>287651.84999999998</v>
+        <v>333765.33</v>
       </c>
       <c r="F298">
-        <v>0.98039215686274506</v>
+        <v>1</v>
       </c>
       <c r="G298">
         <v>1</v>
@@ -6835,16 +6835,16 @@
         <v>99</v>
       </c>
       <c r="C299">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D299">
-        <v>294.11</v>
+        <v>332.09</v>
       </c>
       <c r="E299">
-        <v>294647.55</v>
+        <v>332568.49</v>
       </c>
       <c r="G299">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="E300">
-        <v>2.68</v>
+        <v>3.04</v>
       </c>
       <c r="G300">
         <v>1</v>
@@ -6881,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="E301">
-        <v>4.58</v>
+        <v>44.79</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="E302">
-        <v>4.84</v>
+        <v>145.36000000000001</v>
       </c>
       <c r="G302">
         <v>0</v>
@@ -6924,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="E303">
-        <v>6.65</v>
+        <v>395.81</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -6944,10 +6944,10 @@
         <v>0</v>
       </c>
       <c r="D304">
-        <v>0.03</v>
+        <v>12.11</v>
       </c>
       <c r="E304">
-        <v>391.32</v>
+        <v>12595.65</v>
       </c>
       <c r="G304">
         <v>0</v>
@@ -6964,10 +6964,10 @@
         <v>0</v>
       </c>
       <c r="D305">
-        <v>0.26</v>
+        <v>44.91</v>
       </c>
       <c r="E305">
-        <v>1052.0999999999999</v>
+        <v>45407.98</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -6987,10 +6987,10 @@
         <v>0</v>
       </c>
       <c r="D306">
-        <v>1.32</v>
+        <v>89.67</v>
       </c>
       <c r="E306">
-        <v>1969.76</v>
+        <v>90167.3</v>
       </c>
       <c r="G306">
         <v>0</v>
@@ -7004,19 +7004,19 @@
         <v>8</v>
       </c>
       <c r="C307">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D307">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="E307">
-        <v>3411.42</v>
+        <v>3089.29</v>
       </c>
       <c r="F307">
-        <v>0.98181818181818181</v>
+        <v>1</v>
       </c>
       <c r="G307">
-        <v>0.9555555555555556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
@@ -7027,16 +7027,16 @@
         <v>9</v>
       </c>
       <c r="C308">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="D308">
-        <v>4.92</v>
+        <v>5.12</v>
       </c>
       <c r="E308">
-        <v>5450.6</v>
+        <v>5772.84</v>
       </c>
       <c r="G308">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
@@ -7047,19 +7047,19 @@
         <v>10</v>
       </c>
       <c r="C309">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D309">
-        <v>7.66</v>
+        <v>7.44</v>
       </c>
       <c r="E309">
-        <v>8142.97</v>
+        <v>7841.87</v>
       </c>
       <c r="F309">
-        <v>0.93877551020408168</v>
+        <v>1</v>
       </c>
       <c r="G309">
-        <v>0.96078431372549022</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
@@ -7070,16 +7070,16 @@
         <v>11</v>
       </c>
       <c r="C310">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D310">
-        <v>11.49</v>
+        <v>12.5</v>
       </c>
       <c r="E310">
-        <v>12005.6</v>
+        <v>13063.63</v>
       </c>
       <c r="G310">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
@@ -7090,19 +7090,19 @@
         <v>12</v>
       </c>
       <c r="C311">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D311">
-        <v>16.399999999999999</v>
+        <v>15.42</v>
       </c>
       <c r="E311">
-        <v>16892.900000000001</v>
+        <v>15859.97</v>
       </c>
       <c r="F311">
         <v>1</v>
       </c>
       <c r="G311">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
@@ -7113,16 +7113,16 @@
         <v>13</v>
       </c>
       <c r="C312">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="D312">
-        <v>22.61</v>
+        <v>24.5</v>
       </c>
       <c r="E312">
-        <v>23098.36</v>
+        <v>24920.48</v>
       </c>
       <c r="G312">
-        <v>0.77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
@@ -7133,19 +7133,19 @@
         <v>14</v>
       </c>
       <c r="C313">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D313">
-        <v>31.77</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="E313">
-        <v>32257.39</v>
+        <v>37978.57</v>
       </c>
       <c r="F313">
         <v>1</v>
       </c>
       <c r="G313">
-        <v>0.95454545454545459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
@@ -7156,16 +7156,16 @@
         <v>15</v>
       </c>
       <c r="C314">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="D314">
-        <v>42.63</v>
+        <v>53.93</v>
       </c>
       <c r="E314">
-        <v>43143.93</v>
+        <v>54389.56</v>
       </c>
       <c r="G314">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
@@ -7176,19 +7176,19 @@
         <v>16</v>
       </c>
       <c r="C315">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D315">
-        <v>55.8</v>
+        <v>68.02</v>
       </c>
       <c r="E315">
-        <v>56247.18</v>
+        <v>68531.929999999993</v>
       </c>
       <c r="F315">
         <v>1</v>
       </c>
       <c r="G315">
-        <v>0.98076923076923073</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
@@ -7199,16 +7199,16 @@
         <v>17</v>
       </c>
       <c r="C316">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="D316">
-        <v>72.88</v>
+        <v>96.75</v>
       </c>
       <c r="E316">
-        <v>73412.86</v>
+        <v>97291.85</v>
       </c>
       <c r="G316">
-        <v>0.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
@@ -7222,10 +7222,10 @@
         <v>1</v>
       </c>
       <c r="D317">
-        <v>91.72</v>
+        <v>118.87</v>
       </c>
       <c r="E317">
-        <v>92269.45</v>
+        <v>119384.93</v>
       </c>
       <c r="F317">
         <v>1</v>
@@ -7242,16 +7242,16 @@
         <v>19</v>
       </c>
       <c r="C318">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="D318">
-        <v>115.79</v>
+        <v>172.1</v>
       </c>
       <c r="E318">
-        <v>116284.7</v>
+        <v>172510.63</v>
       </c>
       <c r="G318">
-        <v>0.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
@@ -7262,19 +7262,19 @@
         <v>20</v>
       </c>
       <c r="C319">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D319">
-        <v>147.38</v>
+        <v>194.51</v>
       </c>
       <c r="E319">
-        <v>147822.82999999999</v>
+        <v>194993.49</v>
       </c>
       <c r="F319">
-        <v>0.96363636363636362</v>
+        <v>1</v>
       </c>
       <c r="G319">
-        <v>0.97777777777777775</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
@@ -7285,16 +7285,16 @@
         <v>21</v>
       </c>
       <c r="C320">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="D320">
-        <v>182.5</v>
+        <v>272.99</v>
       </c>
       <c r="E320">
-        <v>182992.07</v>
+        <v>273536.59999999998</v>
       </c>
       <c r="G320">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.3">
@@ -7305,19 +7305,19 @@
         <v>22</v>
       </c>
       <c r="C321">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D321">
-        <v>220.65</v>
+        <v>322.47000000000003</v>
       </c>
       <c r="E321">
-        <v>221176.2</v>
+        <v>323025.07</v>
       </c>
       <c r="F321">
-        <v>0.9555555555555556</v>
+        <v>1</v>
       </c>
       <c r="G321">
-        <v>0.94545454545454544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
@@ -7328,16 +7328,16 @@
         <v>23</v>
       </c>
       <c r="C322">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D322">
-        <v>264.5</v>
+        <v>427.39</v>
       </c>
       <c r="E322">
-        <v>264995.02</v>
+        <v>427840.25</v>
       </c>
       <c r="G322">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.3">
@@ -7348,19 +7348,19 @@
         <v>24</v>
       </c>
       <c r="C323">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D323">
-        <v>320.95999999999998</v>
+        <v>472.01</v>
       </c>
       <c r="E323">
-        <v>321492.03999999998</v>
+        <v>472548.09</v>
       </c>
       <c r="F323">
         <v>1</v>
       </c>
       <c r="G323">
-        <v>0.92982456140350878</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
@@ -7371,16 +7371,16 @@
         <v>25</v>
       </c>
       <c r="C324">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="D324">
-        <v>383.08</v>
+        <v>674.06</v>
       </c>
       <c r="E324">
-        <v>383604.88</v>
+        <v>674505.03</v>
       </c>
       <c r="G324">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.3">
@@ -7394,10 +7394,10 @@
         <v>1</v>
       </c>
       <c r="D325">
-        <v>471.79</v>
+        <v>712.01</v>
       </c>
       <c r="E325">
-        <v>472286.85</v>
+        <v>712497.21</v>
       </c>
       <c r="F325">
         <v>1</v>
@@ -7414,16 +7414,16 @@
         <v>27</v>
       </c>
       <c r="C326">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="D326">
-        <v>545.4</v>
+        <v>883.08</v>
       </c>
       <c r="E326">
-        <v>545887.4</v>
+        <v>883643.6</v>
       </c>
       <c r="G326">
-        <v>0.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
@@ -7434,19 +7434,19 @@
         <v>28</v>
       </c>
       <c r="C327">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D327">
-        <v>640</v>
+        <v>965.7</v>
       </c>
       <c r="E327">
-        <v>640544.38</v>
+        <v>966212.69</v>
       </c>
       <c r="F327">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G327">
-        <v>0.94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
@@ -7457,16 +7457,16 @@
         <v>29</v>
       </c>
       <c r="C328">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="D328">
-        <v>748.54</v>
+        <v>1226.57</v>
       </c>
       <c r="E328">
-        <v>749048.07</v>
+        <v>1227085.3999999999</v>
       </c>
       <c r="G328">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
@@ -7477,19 +7477,19 @@
         <v>30</v>
       </c>
       <c r="C329">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D329">
-        <v>871.16</v>
+        <v>1342.52</v>
       </c>
       <c r="E329">
-        <v>871619</v>
+        <v>1343005.33</v>
       </c>
       <c r="F329">
-        <v>0.9642857142857143</v>
+        <v>1</v>
       </c>
       <c r="G329">
-        <v>0.97727272727272729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
@@ -7500,16 +7500,16 @@
         <v>31</v>
       </c>
       <c r="C330">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D330">
-        <v>1009.26</v>
+        <v>1707.68</v>
       </c>
       <c r="E330">
-        <v>1009757.42</v>
+        <v>1708173.13</v>
       </c>
       <c r="G330">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
@@ -7520,19 +7520,19 @@
         <v>32</v>
       </c>
       <c r="C331">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D331">
-        <v>1154.18</v>
+        <v>1825.16</v>
       </c>
       <c r="E331">
-        <v>1154694.79</v>
+        <v>1825678.54</v>
       </c>
       <c r="F331">
-        <v>0.93617021276595747</v>
+        <v>1</v>
       </c>
       <c r="G331">
-        <v>0.98113207547169812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
@@ -7543,16 +7543,16 @@
         <v>33</v>
       </c>
       <c r="C332">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="D332">
-        <v>1358.49</v>
+        <v>2245.5300000000002</v>
       </c>
       <c r="E332">
-        <v>1359019.42</v>
+        <v>2246051.61</v>
       </c>
       <c r="G332">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
@@ -7563,19 +7563,19 @@
         <v>34</v>
       </c>
       <c r="C333">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D333">
-        <v>1553.59</v>
+        <v>2320.2800000000002</v>
       </c>
       <c r="E333">
-        <v>1554129.46</v>
+        <v>2320781.65</v>
       </c>
       <c r="F333">
-        <v>0.97826086956521741</v>
+        <v>1</v>
       </c>
       <c r="G333">
-        <v>0.96296296296296291</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.3">
@@ -7586,16 +7586,16 @@
         <v>35</v>
       </c>
       <c r="C334">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="D334">
-        <v>1745.03</v>
+        <v>3020.49</v>
       </c>
       <c r="E334">
-        <v>1745497.74</v>
+        <v>3020969.96</v>
       </c>
       <c r="G334">
-        <v>0.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.3">
@@ -7606,19 +7606,19 @@
         <v>36</v>
       </c>
       <c r="C335">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="D335">
-        <v>2000.02</v>
+        <v>2868.22</v>
       </c>
       <c r="E335">
-        <v>2000532.59</v>
+        <v>2868710.02</v>
       </c>
       <c r="F335">
         <v>1</v>
       </c>
       <c r="G335">
-        <v>0.89090909090909087</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.3">
@@ -7629,16 +7629,16 @@
         <v>37</v>
       </c>
       <c r="C336">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="D336">
-        <v>2232.64</v>
+        <v>3546.02</v>
       </c>
       <c r="E336">
-        <v>2233140.27</v>
+        <v>3546519.51</v>
       </c>
       <c r="G336">
-        <v>0.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
@@ -7649,19 +7649,19 @@
         <v>38</v>
       </c>
       <c r="C337">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D337">
-        <v>2506.38</v>
+        <v>3670.33</v>
       </c>
       <c r="E337">
-        <v>2506889.81</v>
+        <v>3670818.16</v>
       </c>
       <c r="F337">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="G337">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.3">
@@ -7672,16 +7672,16 @@
         <v>39</v>
       </c>
       <c r="C338">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="D338">
-        <v>2790.54</v>
+        <v>4549.5</v>
       </c>
       <c r="E338">
-        <v>2791026.55</v>
+        <v>4549963.8</v>
       </c>
       <c r="G338">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
@@ -7692,19 +7692,19 @@
         <v>40</v>
       </c>
       <c r="C339">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="D339">
-        <v>3111.69</v>
+        <v>4650.03</v>
       </c>
       <c r="E339">
-        <v>3112191.49</v>
+        <v>4650463.3099999996</v>
       </c>
       <c r="F339">
-        <v>0.93877551020408168</v>
+        <v>1</v>
       </c>
       <c r="G339">
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
@@ -7715,16 +7715,16 @@
         <v>41</v>
       </c>
       <c r="C340">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="D340">
-        <v>3432.83</v>
+        <v>5597.07</v>
       </c>
       <c r="E340">
-        <v>3433297.47</v>
+        <v>5597584.9100000001</v>
       </c>
       <c r="G340">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
@@ -7735,19 +7735,19 @@
         <v>42</v>
       </c>
       <c r="C341">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D341">
-        <v>3798.11</v>
+        <v>5486.75</v>
       </c>
       <c r="E341">
-        <v>3798599.45</v>
+        <v>5487246.79</v>
       </c>
       <c r="F341">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G341">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
@@ -7758,16 +7758,16 @@
         <v>43</v>
       </c>
       <c r="C342">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="D342">
-        <v>4186.82</v>
+        <v>6372.7</v>
       </c>
       <c r="E342">
-        <v>4187269.75</v>
+        <v>6373153.2699999996</v>
       </c>
       <c r="G342">
-        <v>0.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
@@ -7778,19 +7778,19 @@
         <v>44</v>
       </c>
       <c r="C343">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D343">
-        <v>4594.79</v>
+        <v>5966.97</v>
       </c>
       <c r="E343">
-        <v>4595291.95</v>
+        <v>5967423.5800000001</v>
       </c>
       <c r="F343">
         <v>1</v>
       </c>
       <c r="G343">
-        <v>0.95918367346938771</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
@@ -7801,16 +7801,16 @@
         <v>45</v>
       </c>
       <c r="C344">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="D344">
-        <v>5031.38</v>
+        <v>7769.81</v>
       </c>
       <c r="E344">
-        <v>5031885.2</v>
+        <v>7770367.8499999996</v>
       </c>
       <c r="G344">
-        <v>0.82</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.3">
@@ -7821,16 +7821,16 @@
         <v>46</v>
       </c>
       <c r="C345">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D345">
-        <v>5513.81</v>
+        <v>7347.49</v>
       </c>
       <c r="E345">
-        <v>5514268.0899999999</v>
+        <v>7347990.3899999997</v>
       </c>
       <c r="F345">
-        <v>0.97872340425531912</v>
+        <v>1</v>
       </c>
       <c r="G345">
         <v>1</v>
@@ -7844,16 +7844,16 @@
         <v>47</v>
       </c>
       <c r="C346">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="D346">
-        <v>6009.63</v>
+        <v>8903.2000000000007</v>
       </c>
       <c r="E346">
-        <v>6010111.4800000004</v>
+        <v>8903665.3000000007</v>
       </c>
       <c r="G346">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.3">
@@ -7864,19 +7864,19 @@
         <v>48</v>
       </c>
       <c r="C347">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D347">
-        <v>6535.02</v>
+        <v>7686.3</v>
       </c>
       <c r="E347">
-        <v>6535485.79</v>
+        <v>7686782.9500000002</v>
       </c>
       <c r="F347">
-        <v>0.9464285714285714</v>
+        <v>1</v>
       </c>
       <c r="G347">
-        <v>0.97727272727272729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.3">
@@ -7887,21 +7887,21 @@
         <v>49</v>
       </c>
       <c r="C348">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="D348">
-        <v>7880.5</v>
+        <v>9004.68</v>
       </c>
       <c r="E348">
-        <v>7881024.3799999999</v>
+        <v>9005181.4700000007</v>
       </c>
       <c r="G348">
-        <v>0.84</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G352">
-    <sortCondition ref="A1:A352"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G349">
+    <sortCondition ref="A1:A349"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
